--- a/yield_prediction/results/graph_descriptors/WLrbf_6/out_of_sample/additive/ranking_test4/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_6/out_of_sample/additive/ranking_test4/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.263</v>
+        <v>0.471</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.727</v>
+        <v>19.282</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.094</v>
+        <v>0.596</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.42</v>
+        <v>16.969</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.999</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.987</v>
+        <v>16.701</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>29.63915124265596</v>
+        <v>-3.758407509507457</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>29.6510376445452</v>
+        <v>15.47223348332299</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29.65636830722707</v>
+        <v>22.62905907853</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>29.63108737327849</v>
+        <v>-6.828792306459682</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>29.64611800086812</v>
+        <v>12.89437864527842</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>29.65005908058425</v>
+        <v>19.86612369503147</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>29.63763134379531</v>
+        <v>0.4368758266904607</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>29.66764797681854</v>
+        <v>23.07053334969286</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29.66911458741929</v>
+        <v>30.78552263132591</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>29.64968861756756</v>
+        <v>24.32083077853898</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>29.65358502196027</v>
+        <v>35.04076321234439</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>29.65752155685037</v>
+        <v>40.26649969592487</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>29.63891116684276</v>
+        <v>3.047890086105134</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>29.64617316174913</v>
+        <v>26.66877039501723</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>29.65394868345954</v>
+        <v>36.0634673090672</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>29.63934599194646</v>
+        <v>1.780446725364108</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>29.65984854775026</v>
+        <v>21.02016153597905</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29.67173789113098</v>
+        <v>28.1813458698587</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>29.62948429998821</v>
+        <v>-1.30095264442317</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>29.63834692688504</v>
+        <v>18.42979091775661</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>29.64517778017781</v>
+        <v>25.40713218372813</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>29.63024368346425</v>
+        <v>5.971639123106151</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>29.65324378495683</v>
+        <v>28.61448882843801</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>29.64648342475794</v>
+        <v>6.928134197305361</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>29.66547268775771</v>
+        <v>26.16008273981064</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>29.66284337496007</v>
+        <v>33.3167474329703</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>29.63058259649512</v>
+        <v>3.860538066291873</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>29.66088539887933</v>
+        <v>23.58523385376512</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>29.66768203647069</v>
+        <v>30.55683407794633</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>29.63336997271127</v>
+        <v>11.12711217363975</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>29.68108814184273</v>
+        <v>33.76211970144212</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>29.6796004561017</v>
+        <v>41.47697774590078</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>29.67552277347161</v>
+        <v>35.01342035698739</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>29.68558487917392</v>
+        <v>45.73341457772361</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>29.68634371022337</v>
+        <v>50.95909797536323</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>29.64240863916088</v>
+        <v>13.73892239252499</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>29.66770103639188</v>
+        <v>37.36155517852448</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>29.67131709125126</v>
+        <v>46.75604162850485</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>29.64155140481793</v>
+        <v>12.47092839430665</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>29.67001984476239</v>
+        <v>31.71195095912837</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>29.67665744310159</v>
+        <v>38.8729744778722</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>29.62949050714284</v>
+        <v>9.39231828198016</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>29.66328678257865</v>
+        <v>29.12458689081044</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>29.67836480863272</v>
+        <v>36.10178342824705</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>29.69377376906643</v>
+        <v>39.31001623411775</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>29.63802628748032</v>
+        <v>9.523531112307218</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>29.65258917155878</v>
+        <v>28.75609192409119</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>29.65939066781579</v>
+        <v>35.91298232714079</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>29.62972095276588</v>
+        <v>6.457864830070811</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>29.66000339883568</v>
+        <v>26.18320306296497</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>29.66454537510129</v>
+        <v>33.15510806973786</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>29.63929632113159</v>
+        <v>13.72440519212845</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>29.68242695691153</v>
+        <v>36.36002128036652</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>29.68383839609746</v>
+        <v>44.07509685260383</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>29.68134713821417</v>
+        <v>37.61159484522936</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>29.69106308834417</v>
+        <v>48.33156046461355</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>29.69455347729777</v>
+        <v>53.55743763423872</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>29.63712029104702</v>
+        <v>16.33637621887582</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>29.65708706273374</v>
+        <v>39.96001836796396</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>29.66149067443421</v>
+        <v>49.35467373990438</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>29.63634055179295</v>
+        <v>15.06758781160855</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>29.65941689802306</v>
+        <v>34.30922269584304</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>29.67612474315261</v>
+        <v>41.4704719591297</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>29.62941199541343</v>
+        <v>11.99090779780139</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>29.65130299477169</v>
+        <v>31.72381890815681</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>29.675533800719</v>
+        <v>38.70132027615981</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>29.63229805088375</v>
+        <v>19.26437212505565</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>29.67140472603442</v>
+        <v>41.90918065703355</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>29.6347995907883</v>
+        <v>1.87140229903256</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>29.64717868722768</v>
+        <v>21.10311906211601</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>29.65772224254204</v>
+        <v>28.26043364943204</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>29.6293819417725</v>
+        <v>-1.195665688687619</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>29.65649392188092</v>
+        <v>18.52861963077832</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>29.66656608224917</v>
+        <v>25.50100539548854</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>29.63033350177076</v>
+        <v>6.06989909814687</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>29.67256437430583</v>
+        <v>28.70463506733351</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>29.68323807011167</v>
+        <v>36.4200955415137</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>29.66644398237241</v>
+        <v>29.95518157669702</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>29.6718053304433</v>
+        <v>40.67509161503941</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>29.68154854791017</v>
+        <v>45.90122468576366</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>29.6332176855772</v>
+        <v>8.681009263133127</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>29.6573615777947</v>
+        <v>32.30367203709663</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>29.66499858338285</v>
+        <v>41.69876952283077</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>29.63352878826428</v>
+        <v>7.412268937468106</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>29.6532868910293</v>
+        <v>26.65305964045721</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>29.66755315623533</v>
+        <v>33.81473303921204</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>29.62944622644613</v>
+        <v>4.3341867300201</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>29.64810809347572</v>
+        <v>24.06604479252591</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>29.6700525768276</v>
+        <v>31.04402687252404</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>29.6295836920514</v>
+        <v>11.60667522418502</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>29.66226038861169</v>
+        <v>34.25060349624929</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>29.65556021795447</v>
+        <v>36.33415961285167</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>29.65617410450571</v>
+        <v>29.86620250808895</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>29.6786993945671</v>
+        <v>40.59308271318927</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>29.68439186198423</v>
+        <v>45.82092299268201</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>29.63367708929297</v>
+        <v>8.587500726776433</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>29.64822958092749</v>
+        <v>32.22340043464275</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>29.65684491265676</v>
+        <v>41.62007381781897</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>29.65020517979877</v>
+        <v>11.27755981798627</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>29.67466629959629</v>
+        <v>30.52054395466681</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>29.68031315614314</v>
+        <v>37.68218856188597</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>29.6296243086405</v>
+        <v>8.204875690305506</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>29.64101349911003</v>
+        <v>27.93999931375325</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>29.65207018826127</v>
+        <v>34.91706473833612</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>29.63348459688766</v>
+        <v>15.48053212427752</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>29.66845945916675</v>
+        <v>38.12669836433489</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>29.69172547710922</v>
+        <v>45.84686408572467</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>29.66505957437984</v>
+        <v>39.38592603287456</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>29.69109789626081</v>
+        <v>50.1131400687514</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>29.69723736036854</v>
+        <v>55.34174513350948</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>29.63731609118011</v>
+        <v>18.10101243117791</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>29.66216820446548</v>
+        <v>41.74102212247514</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>29.67554336864188</v>
+        <v>51.13785093475841</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>29.7127561262392</v>
+        <v>47.0295558709602</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>29.68894814668257</v>
+        <v>40.56273301402693</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>29.71296203908351</v>
+        <v>51.28967497886098</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>29.72319870289293</v>
+        <v>56.51746222694525</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>29.63869573101831</v>
+        <v>19.28247380338716</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>29.70308841997404</v>
+        <v>42.92012627299884</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>29.70938415914877</v>
+        <v>52.31658927998675</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>29.66262327772259</v>
+        <v>21.96996946887274</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>29.68739762174041</v>
+        <v>41.21426133862978</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>29.70029303958557</v>
+        <v>48.37574506751756</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>29.63344204498328</v>
+        <v>18.90007469026003</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>29.68359942538559</v>
+        <v>38.63672333722301</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>29.69810425462685</v>
+        <v>45.6136439576392</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>29.64651692388169</v>
+        <v>26.17663750965043</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>29.72688649332127</v>
+        <v>48.82415395108288</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>29.74059439531212</v>
+        <v>56.54418845552497</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>29.73799372786473</v>
+        <v>50.08438471065509</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>29.75943514898519</v>
+        <v>60.81166050014409</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>29.76985195314287</v>
+        <v>66.04021250740598</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>29.67410508015035</v>
+        <v>28.79791366972407</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>29.74468102513753</v>
+        <v>52.43967606949551</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>29.75010322564338</v>
+        <v>61.83629447395484</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>29.71321175207003</v>
+        <v>49.62893785508906</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>29.67240645556388</v>
+        <v>43.16217014169209</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>29.68856418377791</v>
+        <v>53.88908342885956</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>29.71230225067757</v>
+        <v>59.11706450298247</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>29.63466654808478</v>
+        <v>21.88119034195692</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>29.68724702209442</v>
+        <v>45.5198522317102</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>29.65385147531138</v>
+        <v>24.56843257384825</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>29.6826475270829</v>
+        <v>43.81333677452134</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>29.69938805568765</v>
+        <v>50.97504621262855</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>29.63049550349391</v>
+        <v>21.50046792348829</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>29.67953747586234</v>
+        <v>41.23775907689018</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>29.69113851571728</v>
+        <v>48.21498449422237</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>29.64304003100569</v>
+        <v>28.77699713445944</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>29.71514121267007</v>
+        <v>51.42512219998654</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>29.74558253167357</v>
+        <v>59.14537422460618</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>29.7254449130543</v>
+        <v>52.68562563921913</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>29.74008120877041</v>
+        <v>63.41287274009793</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>29.77182683286971</v>
+        <v>68.64161854161276</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>29.65992057993271</v>
+        <v>31.39843392572224</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>29.72807061637966</v>
+        <v>55.04120572630089</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>29.73897925190477</v>
+        <v>64.43799307742805</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>29.69990086355539</v>
+        <v>41.97074554479392</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>29.65481350101557</v>
+        <v>35.50256584531443</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>29.66471671429472</v>
+        <v>46.22942354518526</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>29.68187032596263</v>
+        <v>51.45766052295293</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>29.63266859784046</v>
+        <v>14.22263257727472</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>29.67518116859925</v>
+        <v>37.86031490055988</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>29.69067537406775</v>
+        <v>47.25738891803534</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>29.64499124655802</v>
+        <v>16.91273373973949</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>29.68037360350232</v>
+        <v>36.15679380878809</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>29.70085569430215</v>
+        <v>43.31892742773906</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>29.63050387557943</v>
+        <v>13.84336685249449</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>29.67630682991261</v>
+        <v>33.57960500754113</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>29.69494129176705</v>
+        <v>40.55731119883891</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>29.63360434064756</v>
+        <v>21.1189201983373</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>29.70727544633009</v>
+        <v>43.76616505047347</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>29.74118065788755</v>
+        <v>51.48680197280706</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>29.71583791738521</v>
+        <v>45.02564138377537</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>29.73122991202663</v>
+        <v>55.75283289406483</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>29.7590694913239</v>
+        <v>60.98183460355271</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>29.6434927048588</v>
+        <v>23.73949609788159</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>29.7205134278163</v>
+        <v>47.38128839332504</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>29.74173923024857</v>
+        <v>56.77851782672943</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>20.37360559764073</v>
+        <v>6.657299902180092</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>21.43487133799066</v>
+        <v>25.88910178463542</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>26.43106597803629</v>
+        <v>33.0444301015505</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>17.00092822785757</v>
+        <v>3.586524013634325</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>22.63475819532078</v>
+        <v>23.31096142481173</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>23.93549293031659</v>
+        <v>30.28102207747751</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>18.98159040840676</v>
+        <v>10.85396922704471</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>31.73103170157671</v>
+        <v>33.48860201559959</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>32.83576674154363</v>
+        <v>41.2020997078594</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>22.43515092354212</v>
+        <v>34.73824199877235</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>24.01783114126926</v>
+        <v>45.4575304386498</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>23.645295589067</v>
+        <v>50.68220947397769</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>20.60804372971641</v>
+        <v>13.46365261630289</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>21.61147109019265</v>
+        <v>37.08529207116991</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>23.25681257656448</v>
+        <v>46.47816690405526</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>23.12910500149922</v>
+        <v>12.19297753271443</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>30.41199297931937</v>
+        <v>31.43385250546491</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>31.27782045208371</v>
+        <v>38.59353894103985</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>16.6571941816</v>
+        <v>9.111187271269308</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>22.19118527253561</v>
+        <v>28.84319664620424</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>25.18983511615313</v>
+        <v>35.81885283296678</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>17.42616153412925</v>
+        <v>16.38555596631003</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>30.77049745122595</v>
+        <v>39.02938019832144</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>24.55686231529342</v>
+        <v>17.34311739700892</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>28.74247135404893</v>
+        <v>36.57622675189365</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>27.54019665123594</v>
+        <v>43.73139415944039</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>17.1410211828919</v>
+        <v>14.27513002638924</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>28.62467505557375</v>
+        <v>34.00109219030052</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>29.89151669059536</v>
+        <v>40.9710080038955</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>17.96883752044808</v>
+        <v>21.54348115690872</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>35.40580892460519</v>
+        <v>44.17946386834607</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>34.05295136025473</v>
+        <v>51.89283031450569</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>33.48473520798753</v>
+        <v>45.43010704867269</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>37.05183862839217</v>
+        <v>56.14945726040234</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>37.62447141063059</v>
+        <v>61.37408319714397</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>22.75181254400205</v>
+        <v>24.15396046062418</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>22.34822292924974</v>
+        <v>47.77735230704881</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>22.73981401864581</v>
+        <v>57.17001666331263</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>24.68105820679955</v>
+        <v>22.88273474696783</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>33.26809150520076</v>
+        <v>42.1249173965438</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>34.07600269019991</v>
+        <v>49.28444300942275</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>16.69545372422261</v>
+        <v>19.80373359498575</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>31.25827979629546</v>
+        <v>39.53726793335685</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>35.0441501248355</v>
+        <v>46.51277937816375</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>17.30136757296718</v>
+        <v>27.07900849467664</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>42.92039143349244</v>
+        <v>49.7241828615868</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>17.85577255694643</v>
+        <v>19.93811517630665</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>22.04739807821291</v>
+        <v>39.17183674606205</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>23.22348028029721</v>
+        <v>46.32722985329602</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>16.59386656138357</v>
+        <v>16.87205758129861</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>27.31428990843038</v>
+        <v>36.59866213746447</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>26.35065986814036</v>
+        <v>43.56888271787754</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>18.86423845250673</v>
+        <v>24.14037493995651</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>33.50025293745199</v>
+        <v>46.77696615528172</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>34.61525656476761</v>
+        <v>54.4905501198322</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>35.81133744056932</v>
+        <v>48.0278822857936</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>40.21206711565323</v>
+        <v>58.74720389248993</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>42.84371330183843</v>
+        <v>63.97202357806842</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>17.45990894467888</v>
+        <v>26.75101506541845</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>19.03809975208315</v>
+        <v>50.37541621537404</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>19.42004625694705</v>
+        <v>59.76824947628453</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>19.74912961517584</v>
+        <v>25.47899499528175</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>30.90458876533954</v>
+        <v>44.72178990995034</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>33.61216051996685</v>
+        <v>51.88154125724012</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>16.51327238173567</v>
+        <v>22.40192386838707</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>28.94724080871616</v>
+        <v>42.13610065536935</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>34.83951264554479</v>
+        <v>49.11191691497155</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>17.68214656857421</v>
+        <v>29.67716503988894</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>38.5039279449702</v>
+        <v>52.32294795957242</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>17.44968634734204</v>
+        <v>12.28638995900523</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>20.07122874701966</v>
+        <v>31.51926752717012</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>24.64391717801661</v>
+        <v>38.6750848109023</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>16.51718432687471</v>
+        <v>9.218930759590457</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>28.05326886334728</v>
+        <v>28.94448245729999</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>30.00958531337699</v>
+        <v>35.91518378880054</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>16.87199439183873</v>
+        <v>16.48627258867149</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>35.0880345650346</v>
+        <v>39.12198373431116</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>36.49439512478355</v>
+        <v>46.83595259536029</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>35.20648755597635</v>
+        <v>40.37187288098315</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>37.95858293288133</v>
+        <v>51.09113892065572</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>40.19451868247704</v>
+        <v>56.31621449646847</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>17.16065901656923</v>
+        <v>19.09605191562267</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>18.93381350707241</v>
+        <v>42.71947374143875</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>19.43628615066537</v>
+        <v>52.11274910562444</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>18.93568853993294</v>
+        <v>17.82407993267297</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>29.43679781025247</v>
+        <v>37.06603071330338</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>33.36490257217041</v>
+        <v>44.22620618846273</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>16.57305787151997</v>
+        <v>14.74560671402086</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>28.14315752475932</v>
+        <v>34.4787305079066</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>33.83677017294306</v>
+        <v>41.45502747269931</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>16.73535162291185</v>
+        <v>22.01987209734629</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>36.22762599347221</v>
+        <v>44.66477480684311</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>30.89859486741424</v>
+        <v>46.74755875570376</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>28.26248339021666</v>
+        <v>40.2804367227125</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>35.16701749038213</v>
+        <v>51.00667236585677</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>37.14686987767642</v>
+        <v>56.23345487349801</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>21.01281663534044</v>
+        <v>19.00008690363396</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>28.05156054639338</v>
+        <v>42.63674470658956</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>31.61254643595446</v>
+        <v>52.03159576970851</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>23.24575538399655</v>
+        <v>21.69031417147566</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>30.30735420880551</v>
+        <v>40.93445827938357</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>32.94553174611006</v>
+        <v>48.09460487841242</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>16.64396386544357</v>
+        <v>18.6172385632215</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>20.3033777281529</v>
+        <v>38.35362776989806</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>23.55666812160587</v>
+        <v>45.32900799235032</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>17.60886908141131</v>
+        <v>25.89467189556016</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>28.70136394103981</v>
+        <v>48.54181245502256</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>36.25076294900649</v>
+        <v>56.26048584070706</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>29.32117020621536</v>
+        <v>49.80038232969608</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>38.76172099103848</v>
+        <v>60.52695173432532</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>40.83438855609822</v>
+        <v>65.75449905650467</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>20.26807678590859</v>
+        <v>28.51382110663148</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>27.27576301117158</v>
+        <v>52.15458877442146</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>32.23047731811568</v>
+        <v>61.54959507605989</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>44.37222849881114</v>
+        <v>57.44223026250692</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>42.05901882117255</v>
+        <v>50.97624245709134</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>47.06059106855368</v>
+        <v>61.70253984463719</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>47.70514814950591</v>
+        <v>66.92926930794491</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>24.60081074237112</v>
+        <v>29.69433527552682</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>44.74548939273627</v>
+        <v>53.33274575462125</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>45.3505826623482</v>
+        <v>62.72738642928486</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>28.56548017950275</v>
+        <v>32.38199922451307</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>31.52397369154062</v>
+        <v>51.62745098826966</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>35.314943743844</v>
+        <v>58.78743670157022</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>17.16231897864196</v>
+        <v>29.31171281715277</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>34.40920033586536</v>
+        <v>49.04962696463739</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>37.47106346970157</v>
+        <v>56.02486236914732</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>19.45652978880414</v>
+        <v>36.59005247757162</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>47.15063074415345</v>
+        <v>59.23854315661723</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>47.55228103842332</v>
+        <v>66.95708531652852</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>50.12787843688103</v>
+        <v>60.49811609311067</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>53.74965855741461</v>
+        <v>71.22474723598296</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>54.22400544626578</v>
+        <v>76.45224148796004</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>31.70083859834825</v>
+        <v>39.20999749752745</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>52.9898990322084</v>
+        <v>62.85251778830642</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>54.08896002415779</v>
+        <v>72.24731366952236</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>45.98882171524755</v>
+        <v>60.04121291227776</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>36.39781053260184</v>
+        <v>53.5752803007604</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>42.3803124359105</v>
+        <v>64.30154900686401</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>47.36477330526913</v>
+        <v>69.52847227324835</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>19.79271769003071</v>
+        <v>32.29265255863496</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>42.38617578165858</v>
+        <v>55.93207239880272</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>44.92735712225379</v>
+        <v>65.32688201344345</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>21.62599133481562</v>
+        <v>34.98006305010703</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>32.99601705883195</v>
+        <v>54.2261270903812</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>35.89159768880813</v>
+        <v>61.38633850276555</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>16.65834753109025</v>
+        <v>31.91170669766874</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>33.23076790639575</v>
+        <v>51.65026329864967</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>35.97596975049597</v>
+        <v>58.6258034845678</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>19.26893067108544</v>
+        <v>39.19001272398808</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>45.53898119808561</v>
+        <v>61.83911197033755</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>49.4591557420507</v>
+        <v>69.55787164100653</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>49.8837204642001</v>
+        <v>63.09895762714795</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>53.42675888727193</v>
+        <v>73.82556007763836</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>56.42668834258138</v>
+        <v>79.05324810078085</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>22.93435951279243</v>
+        <v>41.810118388112</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>51.64858364571235</v>
+        <v>65.45364802024565</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>54.5973089847561</v>
+        <v>74.84861283084061</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>44.73264294045971</v>
+        <v>52.38342460451944</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>28.90623964917731</v>
+        <v>45.916080083842</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>34.2272076998151</v>
+        <v>56.64229321676104</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>39.82793482015889</v>
+        <v>61.86947237607584</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>19.21352052896098</v>
+        <v>24.6344988154697</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>40.43622830771191</v>
+        <v>48.27293914001192</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>44.34421035672247</v>
+        <v>57.6681907974419</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>21.07834022217276</v>
+        <v>27.32476809252038</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>32.81604166322338</v>
+        <v>46.56998804828815</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>37.8457136759494</v>
+        <v>53.73062363401679</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>16.73955379786457</v>
+        <v>24.25500960495609</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>34.6302501748594</v>
+        <v>43.99251326254777</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>37.55306930270807</v>
+        <v>50.96853421552002</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>17.26400778115378</v>
+        <v>31.53233981108523</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>45.73236345603709</v>
+        <v>54.18055889349299</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>49.9609137587234</v>
+        <v>61.89970345625844</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>46.78272652270665</v>
+        <v>55.4393775159845</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>50.97976389458358</v>
+        <v>66.16592438994545</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>55.61668550634208</v>
+        <v>71.39386831029211</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>21.25337776275502</v>
+        <v>34.15158464678328</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>49.53600800858103</v>
+        <v>57.79413482466877</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>54.72016772706115</v>
+        <v>67.18954170722319</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>26.4583566463023</v>
+        <v>-7.648147418415952</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>26.87485684242471</v>
+        <v>11.58160092724726</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>27.78217502574185</v>
+        <v>18.7384131745063</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>25.48483791270707</v>
+        <v>-10.71941906631977</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>26.67599210144764</v>
+        <v>9.002697937899519</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>27.01363331299608</v>
+        <v>15.97445731652218</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>25.96416310561209</v>
+        <v>-3.453971337905237</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>28.77727389314492</v>
+        <v>19.17881343462901</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>29.09539471014409</v>
+        <v>26.89378433426206</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>27.00737905783099</v>
+        <v>20.42942165268145</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>27.42506513725762</v>
+        <v>31.14882680083398</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>27.44841793308061</v>
+        <v>36.37457736656794</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>26.34034358024772</v>
+        <v>-0.8427549984476954</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>26.73665773723787</v>
+        <v>22.77713797831101</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>27.35111060258743</v>
+        <v>32.17178497317472</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>26.88400477028453</v>
+        <v>-2.112578194288936</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>28.60837345005409</v>
+        <v>17.12624394875971</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>29.19077167155431</v>
+        <v>24.28741508735735</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>25.39844830713276</v>
+        <v>-5.194864511702086</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>26.53232788442225</v>
+        <v>14.53482505760602</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>27.23564406522627</v>
+        <v>21.51218081655137</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>25.57769768319672</v>
+        <v>2.077506730627682</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>28.45560550700645</v>
+        <v>24.71948366414339</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>27.31009840970865</v>
+        <v>3.03838354369217</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>28.38598213619276</v>
+        <v>22.26943943252585</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>28.1859160327359</v>
+        <v>29.42609078969875</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>25.52553030831017</v>
+        <v>-0.03009942519926057</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>28.34345086811041</v>
+        <v>19.69354240763054</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>28.65179633739585</v>
+        <v>26.66515697467597</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>25.76127280946099</v>
+        <v>7.23625427916776</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>29.95239692028723</v>
+        <v>29.87038905028343</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>29.80206603021078</v>
+        <v>37.58522872446614</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>29.68005666504528</v>
+        <v>31.12200050736127</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>30.5992185712914</v>
+        <v>41.84146744107276</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>30.85911978387741</v>
+        <v>47.06716492550292</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>26.99049823881931</v>
+        <v>9.848266583844214</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>28.13596415362618</v>
+        <v>33.46991203751421</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>28.31425748478569</v>
+        <v>42.8643485744897</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>27.15980438696419</v>
+        <v>8.577892756549808</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>29.42086900534997</v>
+        <v>27.8180226472953</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>29.71822868267715</v>
+        <v>34.97903298249938</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>25.40137848425066</v>
+        <v>5.498395709537171</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>29.0127927151865</v>
+        <v>25.22961031861158</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>29.92823170099188</v>
+        <v>32.20682136308623</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>25.53455893779749</v>
+        <v>12.77167321580831</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>31.85309956593835</v>
+        <v>35.41500036036488</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>25.8840641477569</v>
+        <v>5.633721741978924</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>27.10247082940674</v>
+        <v>24.86538989784359</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>27.47345536583387</v>
+        <v>32.02226697650227</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>25.38198813139681</v>
+        <v>2.567168634730514</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>28.01382977361222</v>
+        <v>22.29145291071965</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>28.1321436579508</v>
+        <v>29.26337227339778</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>26.1466573820502</v>
+        <v>9.833488591250024</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>29.84921902724535</v>
+        <v>32.46823192096011</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>29.94416100803866</v>
+        <v>40.18328913446775</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>30.05861578065627</v>
+        <v>33.72011629948023</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>30.87463788354894</v>
+        <v>44.43955463324907</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>31.68108939863077</v>
+        <v>49.66544589230231</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>25.69336865515879</v>
+        <v>12.44566170847092</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>26.98680077390678</v>
+        <v>36.06831652818656</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>27.19683758556479</v>
+        <v>45.46292199444398</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>26.20393014042139</v>
+        <v>11.174493476241</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>28.72318916577185</v>
+        <v>30.41523568394908</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>29.65407762985014</v>
+        <v>37.57647177542962</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>25.37066681546219</v>
+        <v>8.096926540575659</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>28.13752441364707</v>
+        <v>27.82878364876868</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>29.84935966481561</v>
+        <v>34.80629953687438</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>25.76651356496198</v>
+        <v>15.37017034260456</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>30.40997924020392</v>
+        <v>38.01410609429733</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>25.70692165250494</v>
+        <v>-2.018441624234093</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>26.59993064131611</v>
+        <v>17.21238248475769</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>27.52287440072188</v>
+        <v>24.36968374318079</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>25.35778256670375</v>
+        <v>-5.086396440079589</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>27.87372924263708</v>
+        <v>14.63683492407976</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>28.66953891579276</v>
+        <v>21.60923503911867</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>25.43809912051187</v>
+        <v>2.178947937036391</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>29.50301999791937</v>
+        <v>24.81281114934101</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>30.14230961045776</v>
+        <v>32.52825326097597</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>29.38597243939815</v>
+        <v>26.06366846923132</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>29.99140014461303</v>
+        <v>36.78305122291491</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>30.77418047374546</v>
+        <v>42.00919837948519</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>25.5192503822468</v>
+        <v>4.790260189476875</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>26.96557037104339</v>
+        <v>28.41193563342521</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>27.47059965451996</v>
+        <v>37.8069832112515</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>25.94689705899605</v>
+        <v>3.519140026295908</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>28.27767189246467</v>
+        <v>22.75903805500733</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>29.33907467760073</v>
+        <v>29.92069827765412</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>25.37777057989044</v>
+        <v>0.4401708945718283</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>27.92648976333862</v>
+        <v>20.17097495635327</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>29.47288547045482</v>
+        <v>27.14897155085774</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>25.41442468219519</v>
+        <v>7.712438858573741</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>29.70146758023854</v>
+        <v>30.35549435219506</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>28.5488477415673</v>
+        <v>32.43913622212271</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>28.0901042069673</v>
+        <v>25.97150836138375</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>30.04304346349241</v>
+        <v>36.69786126338321</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>30.53981512927671</v>
+        <v>41.92571565931875</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>26.27315996998943</v>
+        <v>4.693570575178718</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>27.80345850589632</v>
+        <v>28.32848298270032</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>28.71267098186712</v>
+        <v>37.72510656514627</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>27.3613629639266</v>
+        <v>7.387058594707277</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>29.14837164045563</v>
+        <v>26.62915015499622</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>29.92252142580451</v>
+        <v>33.79078149823128</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>25.40687519627299</v>
+        <v>4.313487566887069</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>26.35723914522992</v>
+        <v>24.04755731444019</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>27.2756198007129</v>
+        <v>31.02463718079938</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>25.75768476838286</v>
+        <v>11.58892366243393</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>28.67757335280109</v>
+        <v>34.23421722592312</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>30.66976804670326</v>
+        <v>41.95436464394644</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>28.63176537343801</v>
+        <v>35.49375581281087</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>31.16128449191059</v>
+        <v>46.22044250594937</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>31.83676110295255</v>
+        <v>51.44906171344102</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>26.27705276818923</v>
+        <v>14.20960614340041</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>28.17396201659498</v>
+        <v>37.8486285951365</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>29.54431630457321</v>
+        <v>47.24540754617264</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>32.60716586293143</v>
+        <v>43.13452178245635</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>31.62921440482186</v>
+        <v>36.66802817059764</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>33.21471304411613</v>
+        <v>47.39444283069398</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>33.52414964916937</v>
+        <v>52.62224419944656</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>27.10776418262266</v>
+        <v>15.38853295452262</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>32.2999383930394</v>
+        <v>39.02519812360382</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>32.5474531739352</v>
+        <v>48.42161133621111</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>28.74280276920111</v>
+        <v>18.0794575743594</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>30.07707245032907</v>
+        <v>37.32285686117169</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>31.11170404401708</v>
+        <v>44.48432733819894</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>25.63077219196928</v>
+        <v>15.0086759087599</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>30.43323865194428</v>
+        <v>34.74427067311039</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>31.38368338820144</v>
+        <v>41.72120574910472</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>26.50927058948707</v>
+        <v>22.28501839137611</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>33.94235828763568</v>
+        <v>44.9316621501512</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>34.44378812981538</v>
+        <v>52.65167836297272</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>34.98391324513247</v>
+        <v>46.19220384094664</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>36.42874215647085</v>
+        <v>56.91895228608977</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>36.90036751368334</v>
+        <v>62.14751844052675</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>29.7332552612024</v>
+        <v>24.90649673192664</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>35.55519026723876</v>
+        <v>48.54727189195572</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>35.95311553219646</v>
+        <v>57.9438404412006</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>32.97521931170937</v>
+        <v>45.73384508931205</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>30.20429868581478</v>
+        <v>39.26740662074261</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>31.63285710123095</v>
+        <v>49.99379260485129</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>33.11812783187992</v>
+        <v>55.22178780234325</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>26.12159339370143</v>
+        <v>17.9871908103551</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>31.47264843747703</v>
+        <v>41.62486540249771</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>32.24789294511803</v>
+        <v>51.02144757957209</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>27.12382387553861</v>
+        <v>20.67786199636593</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>29.98296777016438</v>
+        <v>39.92187361165194</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>31.12953358866732</v>
+        <v>47.08356980949649</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>25.43280829532954</v>
+        <v>17.6090104719074</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>29.82547376721053</v>
+        <v>37.34524774015896</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>30.96595189491658</v>
+        <v>44.32248762638771</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>26.43130930310071</v>
+        <v>24.88531934374058</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>33.24670866640322</v>
+        <v>47.53257172457806</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>35.14803710980127</v>
+        <v>55.25280546923822</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>34.51171469772848</v>
+        <v>48.79338610679387</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>35.68928983314991</v>
+        <v>59.52010586492626</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>37.19514034154751</v>
+        <v>64.74886581610727</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>27.81479418735609</v>
+        <v>27.50695831932698</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>34.69448801698954</v>
+        <v>51.14874288335447</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>35.74612606963452</v>
+        <v>60.54548038636964</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>32.21274352809039</v>
+        <v>38.07561819381286</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>28.34029132515477</v>
+        <v>31.60776774040054</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>29.42644692024846</v>
+        <v>42.33409813802079</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>30.75842537826546</v>
+        <v>47.56234923567664</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>25.89861160507518</v>
+        <v>10.32859845960005</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>30.61410666449795</v>
+        <v>33.96529348500204</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>31.79060890754003</v>
+        <v>43.36231771316958</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>26.87443552145761</v>
+        <v>13.02212855891802</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>29.94702989857</v>
+        <v>32.26529604475721</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>31.545309632084</v>
+        <v>39.42741641914112</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>25.4722952894546</v>
+        <v>9.951874794947834</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>30.12720979003425</v>
+        <v>29.68705906635288</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>31.37084262862751</v>
+        <v>36.66477972085264</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>25.74325129312417</v>
+        <v>17.22720779728801</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>33.02735307917265</v>
+        <v>39.87357996635698</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>35.1141565158095</v>
+        <v>47.59419860470795</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>33.54304281275348</v>
+        <v>41.13336723976889</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>34.80884611224617</v>
+        <v>51.86003140804988</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>36.6929280746533</v>
+        <v>57.08904726373058</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>26.92315376834109</v>
+        <v>19.84798587826075</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>34.12382619100328</v>
+        <v>43.48879093656175</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>35.99481235864008</v>
+        <v>52.88597051986736</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>29.50181975836885</v>
+        <v>-7.831467778945772</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>29.54796391745965</v>
+        <v>11.39707486659407</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>29.56890593674482</v>
+        <v>18.55327535056021</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>29.48514645678831</v>
+        <v>-10.90293999212846</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>29.52877723593905</v>
+        <v>8.817953390161769</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>29.55207863897792</v>
+        <v>15.78907813479206</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>29.48999094246747</v>
+        <v>-3.637798778819239</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>29.59441671019384</v>
+        <v>18.99353086187867</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>29.60497750504883</v>
+        <v>26.70785611642683</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>29.54708281957717</v>
+        <v>20.24406844020977</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>29.5582459255981</v>
+        <v>30.96267293540806</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>29.57093556646331</v>
+        <v>36.18794890411338</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>29.49818523125477</v>
+        <v>-1.026901915717495</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>29.53762339638518</v>
+        <v>22.59143865457137</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>29.56372656071529</v>
+        <v>31.98526356641938</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>29.5263576488014</v>
+        <v>-2.29354148832757</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>29.59069308591868</v>
+        <v>16.94407438853515</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>29.65237978658529</v>
+        <v>24.10463343694202</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>29.48567662354039</v>
+        <v>-5.376027463795673</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>29.5217325927215</v>
+        <v>14.35243804412384</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>29.55255070568776</v>
+        <v>21.32915876245128</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>29.49110193231744</v>
+        <v>1.896036986077469</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>29.58837612507786</v>
+        <v>24.53655821270664</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>29.54150239249569</v>
+        <v>2.85424656644981</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>29.59927475142299</v>
+        <v>22.08409666145079</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>29.58894319866121</v>
+        <v>29.24013626791547</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>29.48402417828311</v>
+        <v>-0.214437163184094</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>29.59253971357913</v>
+        <v>19.50798094001508</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>29.6118748604722</v>
+        <v>26.478960884317</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>29.4936707924136</v>
+        <v>7.051609956444771</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>29.64956018195058</v>
+        <v>29.68428949838634</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>29.64432967707894</v>
+        <v>37.39848353798906</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>29.64145905428398</v>
+        <v>30.93583025001866</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>29.66686982753995</v>
+        <v>41.65449652431327</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>29.66927579396432</v>
+        <v>46.87971941560378</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>29.52892498519908</v>
+        <v>9.663302731224611</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>29.62514813649934</v>
+        <v>33.28339565560604</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>29.62991079042854</v>
+        <v>42.67701012438105</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>29.54695367314721</v>
+        <v>8.396112605471934</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>29.627918089226</v>
+        <v>27.63503613668119</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>29.63847066087273</v>
+        <v>34.79543439422915</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>29.48550649193809</v>
+        <v>5.316415704950067</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>29.61465422995438</v>
+        <v>25.04640614506346</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>29.65027459554907</v>
+        <v>32.02298216032367</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>29.48728686122459</v>
+        <v>12.58938634890527</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>29.71747786185816</v>
+        <v>35.2312576894108</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>29.50047254681955</v>
+        <v>5.449326151781669</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>29.56867839774919</v>
+        <v>24.67978846624127</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>29.60063262254481</v>
+        <v>31.83605378115343</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>29.48248884325742</v>
+        <v>2.38257215121056</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>29.58280842587074</v>
+        <v>22.10563264860154</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>29.60431438868771</v>
+        <v>29.07691736979101</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>29.51340881138909</v>
+        <v>9.648585519320058</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>29.66606193903182</v>
+        <v>32.2818735720712</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>29.65259524667182</v>
+        <v>39.9962851388755</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>29.64615617178716</v>
+        <v>33.53368723732709</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>29.66929530932034</v>
+        <v>44.25232491234798</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>29.69354725102689</v>
+        <v>49.4777415639475</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>29.49583703262496</v>
+        <v>12.26043910257957</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>29.58571338901708</v>
+        <v>35.88154132116032</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>29.59724445275981</v>
+        <v>45.27532470788291</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>29.52670724420107</v>
+        <v>10.99245461711306</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>29.60790081250442</v>
+        <v>30.23199041752859</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>29.64480690824826</v>
+        <v>37.39261441836815</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>29.48538834068061</v>
+        <v>7.914687695513557</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>29.59114243002752</v>
+        <v>27.64532058573324</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>29.64398958517132</v>
+        <v>34.62220142588459</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>29.5062234073185</v>
+        <v>15.18762463151533</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>29.68378344234011</v>
+        <v>37.83010453147612</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>29.49344773474106</v>
+        <v>-2.202288356739324</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>29.54358081180384</v>
+        <v>17.02732996989793</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>29.58287351496396</v>
+        <v>24.18401943481516</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>29.48146199852978</v>
+        <v>-5.270443964561387</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>29.55681247043064</v>
+        <v>14.45156369358282</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>29.6151867596507</v>
+        <v>21.42332913262343</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>29.48370858364583</v>
+        <v>1.994593894155322</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>29.61785439280913</v>
+        <v>24.62700189088847</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>29.65518214751338</v>
+        <v>32.34179832910414</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>29.59347072248403</v>
+        <v>25.87778857396783</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>29.60799914633488</v>
+        <v>36.59637067400448</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>29.65198291575689</v>
+        <v>41.82204320385976</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>29.48203864139965</v>
+        <v>4.605586675536223</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>29.57881126301466</v>
+        <v>28.22570958648297</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>29.62248648731832</v>
+        <v>37.61993505259037</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>29.51278205308042</v>
+        <v>3.337650216076135</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>29.59480382044518</v>
+        <v>22.57634189652996</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>29.62471866849495</v>
+        <v>29.73738999887784</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>29.4853392820971</v>
+        <v>0.2584811990621247</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>29.57933682313836</v>
+        <v>19.98806111564583</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>29.62426150490042</v>
+        <v>26.96542262783911</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>29.48661323325772</v>
+        <v>7.530442367082777</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>29.64310562469763</v>
+        <v>30.17204207062324</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>29.60709823903628</v>
+        <v>32.25556477326646</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>29.58451608553372</v>
+        <v>25.7885120669096</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>29.7094874829864</v>
+        <v>36.51406381505959</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>29.72914860692941</v>
+        <v>41.74144344015864</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>29.50909291259172</v>
+        <v>4.511780882980055</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>29.57866663076738</v>
+        <v>28.14513989016192</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>29.61485612660196</v>
+        <v>37.54094128850731</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>29.55006366536411</v>
+        <v>7.205169350684663</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>29.62313442864144</v>
+        <v>26.44605440261981</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>29.67865858915636</v>
+        <v>33.60707362145755</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>29.48607298949896</v>
+        <v>4.131397995632177</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>29.52070547204862</v>
+        <v>23.86424336784822</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>29.56065500544637</v>
+        <v>30.84068820835811</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>29.49723012254766</v>
+        <v>11.40652707208032</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>29.60478586871635</v>
+        <v>34.05036468074358</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>29.69932163992776</v>
+        <v>41.76986606257996</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>29.61031695243642</v>
+        <v>35.30983186579355</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>29.76923528772175</v>
+        <v>46.03571736334769</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>29.79336302765908</v>
+        <v>51.26386177090857</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>29.51071663605072</v>
+        <v>14.02688928316028</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>29.58911063016635</v>
+        <v>37.66435805390362</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>29.64218112355554</v>
+        <v>47.06031478646916</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>29.78139580454561</v>
+        <v>42.95013312418613</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>29.70908759048061</v>
+        <v>36.48421459049272</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>29.80023927995815</v>
+        <v>47.20982809048147</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>29.8479059190772</v>
+        <v>52.4371546924314</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>29.54103832551077</v>
+        <v>15.2059260861029</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>29.74521215542103</v>
+        <v>38.84103773260998</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>29.74507194603911</v>
+        <v>48.23662877594192</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>29.58589833702668</v>
+        <v>17.8967513339558</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>29.68123447994228</v>
+        <v>37.13894401904432</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>29.74153780368537</v>
+        <v>44.299802384012</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>29.49134348297579</v>
+        <v>14.82576914559562</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>29.69096564533027</v>
+        <v>34.56013942686756</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>29.75195421310107</v>
+        <v>41.53643948826622</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>29.51250719602573</v>
+        <v>22.10180453938941</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>29.82482843932741</v>
+        <v>44.74699224628117</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>29.91778837327087</v>
+        <v>52.46636243320646</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>29.8417231262375</v>
+        <v>46.00746246891621</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>29.96812865366223</v>
+        <v>56.73340971225517</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>30.02486202839939</v>
+        <v>61.96150107067903</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>29.59608886781472</v>
+        <v>24.72296255632617</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>29.90498478551694</v>
+        <v>48.36218391277263</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>29.91267781018643</v>
+        <v>57.75793025862246</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>29.80252531662007</v>
+        <v>45.54919752717664</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>29.68563437139964</v>
+        <v>39.08333414144867</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>29.72989117065926</v>
+        <v>49.80891896609231</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>29.80931358211298</v>
+        <v>55.03643938260374</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>29.52551901316411</v>
+        <v>17.8043250938288</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>29.71261222014764</v>
+        <v>41.4404460914108</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>29.72833012881264</v>
+        <v>50.83620608788048</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>29.55540758381484</v>
+        <v>20.49489692978526</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>29.66358596381438</v>
+        <v>39.73770189552787</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>29.73847990964784</v>
+        <v>46.89878596854354</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>29.48706693592912</v>
+        <v>17.42584475021457</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>29.66298617229689</v>
+        <v>37.16085748653737</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>29.72723449459056</v>
+        <v>44.13746233940825</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>29.52346602314882</v>
+        <v>24.70184652952438</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>29.79966822645385</v>
+        <v>47.34764281079985</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>29.94801129510068</v>
+        <v>55.0672305173313</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>29.84066666184582</v>
+        <v>48.60838571712251</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>29.92503582198457</v>
+        <v>59.33430427418083</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>30.01865449307117</v>
+        <v>64.56258941516901</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>29.56456109579228</v>
+        <v>27.32316517765597</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>29.82617129449887</v>
+        <v>50.96339586592425</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>29.86541762054508</v>
+        <v>60.35931115430461</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>29.73332419432305</v>
+        <v>37.89151988613904</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>29.61455660569454</v>
+        <v>31.42424461843306</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>29.64853336392585</v>
+        <v>42.14977386196612</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>29.70088465178072</v>
+        <v>47.37755015932422</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>29.5098601774324</v>
+        <v>10.14628202560565</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>29.66627523667972</v>
+        <v>33.78142352454271</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>29.70593028704732</v>
+        <v>43.17762553997083</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>29.53916947461817</v>
+        <v>12.83971257971124</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>29.65696298803161</v>
+        <v>32.0816734750105</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>29.76182334872766</v>
+        <v>39.24318169487962</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>29.48830372603322</v>
+        <v>9.769258261274253</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>29.6515054123177</v>
+        <v>29.50321807360687</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>29.75651690510316</v>
+        <v>36.48030366034053</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>29.49667758621002</v>
+        <v>17.04428424099459</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>29.75919245902466</v>
+        <v>39.68920037220077</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>29.93893526991708</v>
+        <v>47.40917294584168</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>29.79823158832777</v>
+        <v>40.94891624607775</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>29.89062856479278</v>
+        <v>51.67477921854167</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>30.01081817529483</v>
+        <v>56.90332024469254</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>29.53187678051233</v>
+        <v>19.66474205741842</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>29.81963203974814</v>
+        <v>43.30399330812728</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>29.91511979655517</v>
+        <v>52.70035064464654</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>29.42657579580399</v>
+        <v>-3.181369438698049</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>29.51035341141417</v>
+        <v>16.04992888167411</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>29.60124411996814</v>
+        <v>23.20618890414929</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>29.2600415059732</v>
+        <v>-6.252878662984891</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>29.44494303529057</v>
+        <v>13.4708508469926</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>29.48093947118657</v>
+        <v>20.44195212210847</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>29.33998507673671</v>
+        <v>1.013785838503544</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>29.76981535036687</v>
+        <v>23.64811658492923</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>29.78523932778661</v>
+        <v>31.36257047303676</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>29.51102712319653</v>
+        <v>24.89834283606186</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>29.5747343696847</v>
+        <v>35.61783663683256</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>29.59101380890117</v>
+        <v>40.84315217762302</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>29.43305165244991</v>
+        <v>3.624250740397919</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>29.47017624106259</v>
+        <v>27.24575758915913</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>29.59258358027424</v>
+        <v>36.63965292046115</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>29.40091661181452</v>
+        <v>2.352814863372977</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>29.60729085326496</v>
+        <v>21.59318680768323</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>29.69803557738942</v>
+        <v>28.75380547605918</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>29.24390806065306</v>
+        <v>-0.7297091459382372</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>29.368259816419</v>
+        <v>19.00159280878567</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>29.43553152189598</v>
+        <v>25.97829021276895</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>29.26355847652279</v>
+        <v>6.543879038458535</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>29.57384376998637</v>
+        <v>29.18740176851671</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>29.54182145596857</v>
+        <v>7.505216879529861</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>29.66264775336303</v>
+        <v>26.73782275725049</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>29.65440316284278</v>
+        <v>33.89392187055243</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>29.25827287389446</v>
+        <v>4.436496365437996</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>29.65164694905889</v>
+        <v>24.16175072594073</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>29.68437110821706</v>
+        <v>31.13270716585934</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>29.30101916805465</v>
+        <v>11.70406684073513</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>29.89877300499164</v>
+        <v>34.33974759784272</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>29.86954890105937</v>
+        <v>42.0540702419103</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>29.8380938908473</v>
+        <v>35.59097709041456</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>29.97806357263752</v>
+        <v>46.31053267462429</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>29.96559190559867</v>
+        <v>51.53579512378318</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>29.51060954773298</v>
+        <v>14.31532770282414</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>29.839360884153</v>
+        <v>37.93858705579866</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>29.86681767442868</v>
+        <v>47.33227190784184</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>29.45799981048919</v>
+        <v>13.04334117454645</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>29.68583613655596</v>
+        <v>32.28502088074621</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>29.75791019507196</v>
+        <v>39.44547872669083</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>29.2436164777612</v>
+        <v>9.963606467412809</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>29.63428439866316</v>
+        <v>29.69643348340825</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>29.74877715751446</v>
+        <v>36.67298614929761</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>29.25865489007182</v>
+        <v>17.2381009128715</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>29.95766922407446</v>
+        <v>39.88297386582409</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>29.34976045201204</v>
+        <v>10.10044346053227</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>29.52327055145411</v>
+        <v>29.33366159246865</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>29.59881654191248</v>
+        <v>36.48998642723294</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>29.24480313526623</v>
+        <v>7.033652835072907</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>29.6346584648921</v>
+        <v>26.75954962802431</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>29.67348563205321</v>
+        <v>33.73081086361564</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>29.31431664779377</v>
+        <v>14.30118954642152</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>29.8728808126877</v>
+        <v>36.9374788467998</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>29.9095214297751</v>
+        <v>44.65201903075846</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>29.90153476268281</v>
+        <v>38.18898129576636</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>30.00230076705747</v>
+        <v>48.90850827547039</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>30.03537828363136</v>
+        <v>54.13396449319945</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>29.32740023078209</v>
+        <v>16.91261124050678</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>29.61487147050909</v>
+        <v>40.53687995560112</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>29.65630551760829</v>
+        <v>49.93073373254882</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>29.36716988348813</v>
+        <v>15.63983028389888</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>29.62729411755521</v>
+        <v>34.88212229392756</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>29.74965735649737</v>
+        <v>42.0428058962896</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>29.24118714232471</v>
+        <v>12.56202571454472</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>29.55882139355942</v>
+        <v>32.29549521907146</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>29.74184665213897</v>
+        <v>39.27235272854663</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>29.26787769313684</v>
+        <v>19.83648643944029</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>29.81867803937206</v>
+        <v>42.48196798490793</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>29.3197105967922</v>
+        <v>2.448142655304117</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>29.49006822551281</v>
+        <v>21.68051672114931</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>29.60109804590615</v>
+        <v>28.83726575641018</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>29.24257771630894</v>
+        <v>-0.6200496904044357</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>29.63690180187431</v>
+        <v>19.10479416574768</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>29.72474055599704</v>
+        <v>26.07653617845759</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>29.25430763907632</v>
+        <v>6.646511433434434</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>29.85552910688784</v>
+        <v>29.28192059858603</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>29.92891702270239</v>
+        <v>36.99684570070114</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>29.82467373969561</v>
+        <v>30.53239601394493</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>29.89684334690677</v>
+        <v>41.25186741340341</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>29.96626197483385</v>
+        <v>46.47757953409624</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>29.30833112033269</v>
+        <v>9.257072283196557</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>29.66182610619457</v>
+        <v>32.88036159652248</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>29.74053005208287</v>
+        <v>42.27465750364892</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>29.31742347259626</v>
+        <v>7.984339384216618</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>29.57176466371704</v>
+        <v>27.22578719604716</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>29.69191548886295</v>
+        <v>34.38689495015982</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>29.24126168895877</v>
+        <v>4.905132607044187</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>29.53486291968451</v>
+        <v>24.63754904018439</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>29.71447031793896</v>
+        <v>31.61488728103374</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>29.24546300178264</v>
+        <v>12.17861748630916</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>29.73216354528234</v>
+        <v>34.82321875573238</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>29.5700562701788</v>
+        <v>36.90653706780896</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>29.56419934947169</v>
+        <v>30.4390446958494</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>29.78306576367696</v>
+        <v>41.16548608968291</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>29.82971100292486</v>
+        <v>46.39290527329471</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>29.3485760520148</v>
+        <v>9.15919167353335</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>29.48102153811421</v>
+        <v>32.79571767151723</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>29.58892700541153</v>
+        <v>42.19158963926751</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>29.42919094418152</v>
+        <v>11.85188382987739</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>29.65859479696008</v>
+        <v>31.09552519540561</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>29.74816838850471</v>
+        <v>38.25660409980086</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>29.24364117362271</v>
+        <v>8.778075118167898</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>29.36719597214882</v>
+        <v>28.51375727089241</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>29.49434098897736</v>
+        <v>35.49017876730696</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>29.27566457959167</v>
+        <v>16.05472815930697</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>29.63480639518609</v>
+        <v>38.70156750603898</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>29.93412135710107</v>
+        <v>46.42119770267451</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>29.62989108355413</v>
+        <v>39.96072429865448</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>29.87934293512404</v>
+        <v>50.68749948734095</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>29.98395932291421</v>
+        <v>55.91568359817771</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>29.34401546649779</v>
+        <v>18.67465946973406</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>29.58577318006506</v>
+        <v>42.31529563421854</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>29.75342356616024</v>
+        <v>51.71132288611651</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>30.13846261212382</v>
+        <v>47.60197801051837</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>29.94873494202433</v>
+        <v>41.13561990817178</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>30.15708496555793</v>
+        <v>51.86212305812993</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>30.19340330693248</v>
+        <v>57.08948920447225</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>29.46433290610709</v>
+        <v>19.85420943705348</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>30.05690164582509</v>
+        <v>43.49248822367114</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>30.13001017025469</v>
+        <v>52.88814980033218</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>29.62535454498342</v>
+        <v>22.54433812071674</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>29.80434504868721</v>
+        <v>41.78928722689231</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>29.89406855435941</v>
+        <v>48.95020524596035</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>29.26595269460614</v>
+        <v>19.47331880284791</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>29.80296784451097</v>
+        <v>39.21052599343833</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>29.88159702769915</v>
+        <v>46.18680267603035</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>29.35264223212947</v>
+        <v>26.75087822812933</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>30.19327946423395</v>
+        <v>49.39906778202002</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>30.27848066713746</v>
+        <v>57.11856675450853</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>30.30496955604007</v>
+        <v>50.65922768061549</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>30.43265361015474</v>
+        <v>61.38606461949374</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>30.49947301440917</v>
+        <v>66.61419566713565</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>29.72271814092105</v>
+        <v>29.37160539302821</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>30.35710836742372</v>
+        <v>53.01399429301845</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>30.39642056832652</v>
+        <v>62.40981112182229</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>30.10859301412628</v>
+        <v>50.20118970286243</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>29.84457066667962</v>
+        <v>43.7348867788999</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>29.97388347729497</v>
+        <v>54.46136124799924</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>30.15300163761642</v>
+        <v>59.68892121708215</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>29.35822956526706</v>
+        <v>22.45275571285087</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>29.93494452176073</v>
+        <v>46.09204391866641</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>30.03841362627593</v>
+        <v>55.48787445532029</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>29.46716480177514</v>
+        <v>25.14263093541198</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>29.77357646010426</v>
+        <v>44.38819235685654</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>29.8699849912025</v>
+        <v>51.54933609700269</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>29.24788015904366</v>
+        <v>22.07354178498512</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>29.76466425177027</v>
+        <v>41.81139146941602</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>29.84254288627054</v>
+        <v>48.78797296202143</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>29.31708247775091</v>
+        <v>29.35106758401779</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>30.12672563715168</v>
+        <v>51.99986574504457</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>30.30817835996755</v>
+        <v>59.71958224983533</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>30.2329612249265</v>
+        <v>53.2602983699226</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>30.34169130563587</v>
+        <v>63.98710661716033</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>30.55938864462756</v>
+        <v>69.21543145561932</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>29.47691191782033</v>
+        <v>31.97195540406896</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>30.25681637545051</v>
+        <v>55.6153537037715</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>30.32848801266186</v>
+        <v>65.01133948212671</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>30.04919961076046</v>
+        <v>42.54282534052508</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>29.6080230518285</v>
+        <v>36.07511043613639</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>29.71519522944441</v>
+        <v>46.80152931875413</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>29.87196507588175</v>
+        <v>52.02934519358136</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>29.31477451365609</v>
+        <v>14.79402591302713</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>29.84880760854986</v>
+        <v>38.43233452602559</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>29.98616212448307</v>
+        <v>47.82860713219694</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>29.37373322478616</v>
+        <v>17.48676011078468</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>29.76580544596191</v>
+        <v>36.73147738375489</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>29.88620797853124</v>
+        <v>43.89304532101747</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>29.24466139561825</v>
+        <v>14.41626870929716</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>29.76979032886668</v>
+        <v>34.15306537190683</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>29.88078434265403</v>
+        <v>41.13012765792761</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>29.25998934109274</v>
+        <v>21.69281863067889</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>30.08226231935825</v>
+        <v>44.34073656201898</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>30.27926869467633</v>
+        <v>52.06083798077001</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>30.15805206766802</v>
+        <v>45.60014210302919</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>30.27113874086661</v>
+        <v>56.32689476037687</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>30.47887299338174</v>
+        <v>61.55547550877001</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>29.3591086239457</v>
+        <v>24.31284557611006</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>30.21647528286688</v>
+        <v>47.95526434415778</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>30.35375137322681</v>
+        <v>57.35169222140397</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLrbf_6/out_of_sample/additive/ranking_test4/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_6/out_of_sample/additive/ranking_test4/results.xlsx
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>15.47223348332299</v>
+        <v>15.47223348330207</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>22.62905907853</v>
+        <v>22.62905907856888</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-6.828792306459682</v>
+        <v>-6.828792306456045</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>12.89437864527842</v>
+        <v>12.89437864526932</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>19.86612369503147</v>
+        <v>19.86612369505693</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.4368758266904607</v>
+        <v>0.4368758267585591</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>23.07053334969286</v>
+        <v>23.07053334964829</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>30.78552263132591</v>
+        <v>30.78552263135888</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>24.32083077853898</v>
+        <v>24.32083077856058</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>35.04076321234439</v>
+        <v>35.04076321231188</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>40.26649969592487</v>
+        <v>40.26649969590145</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3.047890086105134</v>
+        <v>3.047890086124006</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>26.66877039501723</v>
+        <v>26.66877039500404</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>36.0634673090672</v>
+        <v>36.0634673090647</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1.780446725364108</v>
+        <v>1.780446725374794</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>21.02016153597905</v>
+        <v>21.02016153598712</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>28.1813458698587</v>
+        <v>28.18134586983039</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-1.30095264442317</v>
+        <v>-1.300952644383266</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>18.42979091775661</v>
+        <v>18.42979091775013</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>25.40713218372813</v>
+        <v>25.40713218374257</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5.971639123106151</v>
+        <v>5.971639123127751</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>28.61448882843801</v>
+        <v>28.61448882844858</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6.928134197305361</v>
+        <v>6.928134197313547</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>26.16008273981064</v>
+        <v>26.16008273978517</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>33.3167474329703</v>
+        <v>33.31674743290822</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3.860538066291873</v>
+        <v>3.860538066257995</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>23.58523385376512</v>
+        <v>23.58523385372158</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>30.55683407794633</v>
+        <v>30.55683407793189</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>11.12711217363975</v>
+        <v>11.12711217361406</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>33.76211970144212</v>
+        <v>33.76211970141745</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>41.47697774590078</v>
+        <v>41.47697774584586</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>35.01342035698739</v>
+        <v>35.01342035697579</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>45.73341457772361</v>
+        <v>45.73341457763414</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>50.95909797536323</v>
+        <v>50.95909797529308</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>13.73892239252499</v>
+        <v>13.73892239249589</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>37.36155517852448</v>
+        <v>37.36155517852414</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>46.75604162850485</v>
+        <v>46.756041628472</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>12.47092839430665</v>
+        <v>12.470928394293</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>31.71195095912837</v>
+        <v>31.71195095905504</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>38.8729744778722</v>
+        <v>38.87297447789437</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>9.39231828198016</v>
+        <v>9.39231828198448</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>29.12458689081044</v>
+        <v>29.12458689082056</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>36.10178342824705</v>
+        <v>36.1017834282524</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>39.31001623411775</v>
+        <v>39.31001623407125</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>9.523531112307218</v>
+        <v>9.523531112295622</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>28.75609192409119</v>
+        <v>28.75609192407823</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>35.91298232714079</v>
+        <v>35.91298232711532</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6.457864830070811</v>
+        <v>6.457864830083544</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>26.18320306296497</v>
+        <v>26.18320306293973</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>33.15510806973786</v>
+        <v>33.15510806976469</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>13.72440519212845</v>
+        <v>13.72440519215733</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>36.36002128036652</v>
+        <v>36.3600212803797</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>44.07509685260383</v>
+        <v>44.0750968526493</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>37.61159484522936</v>
+        <v>37.61159484525664</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>48.33156046461355</v>
+        <v>48.33156046464811</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>53.55743763423872</v>
+        <v>53.55743763423462</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>16.33637621887582</v>
+        <v>16.33637621883944</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>39.96001836796396</v>
+        <v>39.96001836799307</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>49.35467373990438</v>
+        <v>49.35467373985345</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>15.06758781160855</v>
+        <v>15.06758781157513</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>34.30922269584304</v>
+        <v>34.30922269587339</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>41.4704719591297</v>
+        <v>41.47047195910549</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>11.99090779780139</v>
+        <v>11.99090779779798</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>31.72381890815681</v>
+        <v>31.7238189081592</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>38.70132027615981</v>
+        <v>38.70132027619881</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>19.26437212505565</v>
+        <v>19.26437212503837</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>41.90918065703355</v>
+        <v>41.90918065706641</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1.87140229903256</v>
+        <v>1.871402299074852</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>21.10311906211601</v>
+        <v>21.10311906213921</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>28.26043364943204</v>
+        <v>28.26043364941726</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>-1.195665688687619</v>
+        <v>-1.195665688760378</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>18.52861963077832</v>
+        <v>18.52861963074921</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>25.50100539548854</v>
+        <v>25.50100539545944</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6.06989909814687</v>
+        <v>6.069899098130044</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>28.70463506733351</v>
+        <v>28.70463506731895</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>36.4200955415137</v>
+        <v>36.42009554150165</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>29.95518157669702</v>
+        <v>29.95518157669475</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>40.67509161503941</v>
+        <v>40.67509161508614</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>45.90122468576366</v>
+        <v>45.90122468575991</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>8.681009263133127</v>
+        <v>8.68100926314586</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>32.30367203709663</v>
+        <v>32.30367203713858</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>41.69876952283077</v>
+        <v>41.69876952280473</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>7.412268937468106</v>
+        <v>7.412268937441958</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>26.65305964045721</v>
+        <v>26.65305964039457</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>33.81473303921204</v>
+        <v>33.8147330391926</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>4.3341867300201</v>
+        <v>4.33418673003397</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>24.06604479252591</v>
+        <v>24.06604479253318</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>31.04402687252404</v>
+        <v>31.04402687257565</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>11.60667522418502</v>
+        <v>11.60667522415296</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>34.25060349624929</v>
+        <v>34.25060349624827</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>36.33415961285167</v>
+        <v>36.33415961282973</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>29.86620250808895</v>
+        <v>29.86620250805576</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>40.59308271318927</v>
+        <v>40.59308271320234</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>45.82092299268201</v>
+        <v>45.82092299270327</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>8.587500726776433</v>
+        <v>8.587500726750058</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>32.22340043464275</v>
+        <v>32.22340043463854</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>41.62007381781897</v>
+        <v>41.62007381779134</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>11.27755981798627</v>
+        <v>11.2775598180131</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>30.52054395466681</v>
+        <v>30.52054395470763</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>37.68218856188597</v>
+        <v>37.68218856191496</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>8.204875690305506</v>
+        <v>8.204875690370763</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>27.93999931375325</v>
+        <v>27.93999931377565</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>34.91706473833612</v>
+        <v>34.91706473834942</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>15.48053212427752</v>
+        <v>15.48053212430549</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>38.12669836433489</v>
+        <v>38.12669836435229</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>45.84686408572467</v>
+        <v>45.84686408574593</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>39.38592603287456</v>
+        <v>39.38592603283795</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>50.1131400687514</v>
+        <v>50.11314006874151</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>55.34174513350948</v>
+        <v>55.34174513354416</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>18.10101243117791</v>
+        <v>18.10101243123794</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>41.74102212247514</v>
+        <v>41.74102212244183</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>51.13785093475841</v>
+        <v>51.13785093480627</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>47.0295558709602</v>
+        <v>47.02955587091916</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>40.56273301402693</v>
+        <v>40.56273301400487</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>51.28967497886098</v>
+        <v>51.28967497886052</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>56.51746222694525</v>
+        <v>56.51746222699095</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>19.28247380338716</v>
+        <v>19.28247380339671</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>42.92012627299884</v>
+        <v>42.92012627294745</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>52.31658927998675</v>
+        <v>52.31658928000062</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>21.96996946887274</v>
+        <v>21.96996946888388</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>41.21426133862978</v>
+        <v>41.21426133860567</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>48.37574506751756</v>
+        <v>48.37574506753416</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>18.90007469026003</v>
+        <v>18.90007469027459</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>38.63672333722301</v>
+        <v>38.63672333718026</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>45.6136439576392</v>
+        <v>45.61364395763375</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>26.17663750965043</v>
+        <v>26.17663750964565</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>48.82415395108288</v>
+        <v>48.82415395106549</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>56.54418845552497</v>
+        <v>56.5441884555585</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>50.08438471065509</v>
+        <v>50.08438471063486</v>
       </c>
     </row>
     <row r="132">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>66.04021250740598</v>
+        <v>66.04021250743099</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>28.79791366972407</v>
+        <v>28.79791366970588</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>52.43967606949551</v>
+        <v>52.43967606950643</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>61.83629447395484</v>
+        <v>61.83629447396667</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>49.62893785508906</v>
+        <v>49.6289378550778</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>43.16217014169209</v>
+        <v>43.16217014172484</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>53.88908342885956</v>
+        <v>53.88908342884489</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>59.11706450298247</v>
+        <v>59.11706450297417</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>21.88119034195692</v>
+        <v>21.88119034192395</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>45.5198522317102</v>
+        <v>45.51985223170178</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>24.56843257384825</v>
+        <v>24.5684325738528</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>43.81333677452134</v>
+        <v>43.81333677450861</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>50.97504621262855</v>
+        <v>50.97504621266197</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>21.50046792348829</v>
+        <v>21.50046792348466</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>41.23775907689018</v>
+        <v>41.23775907687563</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>48.21498449422237</v>
+        <v>48.21498449420054</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>28.77699713445944</v>
+        <v>28.77699713447763</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>51.42512219998654</v>
+        <v>51.42512220003395</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>59.14537422460618</v>
+        <v>59.14537422455354</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>52.68562563921913</v>
+        <v>52.68562563922595</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>63.41287274009793</v>
+        <v>63.4128727401392</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>68.64161854161276</v>
+        <v>68.64161854166358</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>31.39843392572224</v>
+        <v>31.39843392573679</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>55.04120572630089</v>
+        <v>55.04120572627179</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>64.43799307742805</v>
+        <v>64.43799307749012</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>41.97074554479392</v>
+        <v>41.97074554481018</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>35.50256584531443</v>
+        <v>35.50256584536059</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>46.22942354518526</v>
+        <v>46.22942354519959</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>51.45766052295293</v>
+        <v>51.45766052297453</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>14.22263257727472</v>
+        <v>14.22263257720787</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>37.86031490055988</v>
+        <v>37.86031490058148</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>47.25738891803534</v>
+        <v>47.25738891800169</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>16.91273373973949</v>
+        <v>16.91273373976473</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>36.15679380878809</v>
+        <v>36.15679380874966</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>43.31892742773906</v>
+        <v>43.3189274277643</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>13.84336685249449</v>
+        <v>13.84336685248312</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>33.57960500754113</v>
+        <v>33.57960500756182</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>40.55731119883891</v>
+        <v>40.55731119882822</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>21.1189201983373</v>
+        <v>21.11892019833707</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>43.76616505047347</v>
+        <v>43.7661650504563</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>51.48680197280706</v>
+        <v>51.48680197283333</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>45.02564138377537</v>
+        <v>45.02564138375241</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>55.75283289406483</v>
+        <v>55.7528328940538</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>60.98183460355271</v>
+        <v>60.98183460355987</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>23.73949609788159</v>
+        <v>23.73949609779292</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>47.38128839332504</v>
+        <v>47.38128839327718</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>56.77851782672943</v>
+        <v>56.77851782672182</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>6.657299902180092</v>
+        <v>6.657299902163722</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>25.88910178463542</v>
+        <v>25.88910178468885</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>33.0444301015505</v>
+        <v>33.04443010153663</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>3.586524013634325</v>
+        <v>3.586524013681618</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>23.31096142481173</v>
+        <v>23.31096142478263</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>30.28102207747751</v>
+        <v>30.2810220774666</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>10.85396922704471</v>
+        <v>10.85396922703107</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>33.48860201559959</v>
+        <v>33.48860201563051</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>41.2020997078594</v>
+        <v>41.20209970784075</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>34.73824199877235</v>
+        <v>34.73824199881782</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>45.4575304386498</v>
+        <v>45.45753043872245</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>50.68220947397769</v>
+        <v>50.68220947398667</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>13.46365261630289</v>
+        <v>13.46365261630039</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>37.08529207116991</v>
+        <v>37.08529207111796</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>46.47816690405526</v>
+        <v>46.47816690403878</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>12.19297753271443</v>
+        <v>12.1929775327142</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>31.43385250546491</v>
+        <v>31.43385250545376</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>38.59353894103985</v>
+        <v>38.59353894098505</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>9.111187271269308</v>
+        <v>9.111187271218377</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>28.84319664620424</v>
+        <v>28.84319664619662</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>35.81885283296678</v>
+        <v>35.81885283295438</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>16.38555596631003</v>
+        <v>16.38555596631776</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>39.02938019832144</v>
+        <v>39.02938019838329</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>17.34311739700892</v>
+        <v>17.34311739696003</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>36.57622675189365</v>
+        <v>36.57622675192582</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>43.73139415944039</v>
+        <v>43.73139415941845</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>14.27513002638924</v>
+        <v>14.2751300263756</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>34.00109219030052</v>
+        <v>34.00109219031859</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>40.9710080038955</v>
+        <v>40.97100800384764</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>21.54348115690872</v>
+        <v>21.54348115694987</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>44.17946386834607</v>
+        <v>44.17946386831469</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>51.89283031450569</v>
+        <v>51.89283031452184</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>45.43010704867269</v>
+        <v>45.43010704872362</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>56.14945726040234</v>
+        <v>56.14945726041962</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>61.37408319714397</v>
+        <v>61.37408319721445</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>24.15396046062418</v>
+        <v>24.15396046060486</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>47.77735230704881</v>
+        <v>47.77735230706154</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>57.17001666331263</v>
+        <v>57.17001666328989</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>22.88273474696783</v>
+        <v>22.88273474695601</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>42.1249173965438</v>
+        <v>42.12491739655301</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>49.28444300942275</v>
+        <v>49.28444300940172</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>19.80373359498575</v>
+        <v>19.80373359499689</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>39.53726793335685</v>
+        <v>39.53726793334435</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>46.51277937816375</v>
+        <v>46.5127793781592</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>27.07900849467664</v>
+        <v>27.07900849466845</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>49.7241828615868</v>
+        <v>49.72418286163569</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>19.93811517630665</v>
+        <v>19.93811517627936</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>39.17183674606205</v>
+        <v>39.17183674607728</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>46.32722985329602</v>
+        <v>46.32722985328125</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>16.87205758129861</v>
+        <v>16.87205758130225</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>36.59866213746447</v>
+        <v>36.59866213747993</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>43.56888271787754</v>
+        <v>43.56888271787026</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>24.14037493995651</v>
+        <v>24.14037493996174</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>46.77696615528172</v>
+        <v>46.77696615531332</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>54.4905501198322</v>
+        <v>54.4905501198131</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>48.0278822857936</v>
+        <v>48.02788228586363</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>58.74720389248993</v>
+        <v>58.74720389254961</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>63.97202357806842</v>
+        <v>63.97202357814584</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>26.75101506541845</v>
+        <v>26.75101506538116</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>50.37541621537404</v>
+        <v>50.37541621528514</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>59.76824947628453</v>
+        <v>59.76824947627657</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>25.47899499528175</v>
+        <v>25.47899499528857</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>44.72178990995034</v>
+        <v>44.72178990997796</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>51.88154125724012</v>
+        <v>51.8815412572723</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>22.40192386838707</v>
+        <v>22.4019238684023</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>42.13610065536935</v>
+        <v>42.1361006554021</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>49.11191691497155</v>
+        <v>49.11191691502612</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>29.67716503988894</v>
+        <v>29.67716503991804</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>52.32294795957242</v>
+        <v>52.32294795964473</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>12.28638995900523</v>
+        <v>12.28638995902501</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>31.51926752717012</v>
+        <v>31.5192675271367</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>38.6750848109023</v>
+        <v>38.67508481092322</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>9.218930759590457</v>
+        <v>9.218930759572494</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>28.94448245729999</v>
+        <v>28.94448245726532</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>35.91518378880054</v>
+        <v>35.91518378874949</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>16.48627258867149</v>
+        <v>16.48627258863329</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>39.12198373431116</v>
+        <v>39.12198373430719</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>46.83595259536029</v>
+        <v>46.83595259535995</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>40.37187288098315</v>
+        <v>40.37187288096133</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>51.09113892065572</v>
+        <v>51.09113892065935</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>56.31621449646847</v>
+        <v>56.31621449645028</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>19.09605191562267</v>
+        <v>19.09605191554332</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>42.71947374143875</v>
+        <v>42.71947374141306</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>52.11274910562444</v>
+        <v>52.11274910558715</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>17.82407993267297</v>
+        <v>17.82407993267092</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>37.06603071330338</v>
+        <v>37.06603071329679</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>44.22620618846273</v>
+        <v>44.22620618845864</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>14.74560671402086</v>
+        <v>14.74560671403859</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>34.4787305079066</v>
+        <v>34.47873050791649</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>41.45502747269931</v>
+        <v>41.45502747270624</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>22.01987209734629</v>
+        <v>22.0198720972758</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>44.66477480684311</v>
+        <v>44.66477480686823</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>46.74755875570376</v>
+        <v>46.74755875570762</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>40.2804367227125</v>
+        <v>40.28043672269408</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>51.00667236585677</v>
+        <v>51.00667236585972</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>56.23345487349801</v>
+        <v>56.23345487358123</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>19.00008690363396</v>
+        <v>19.00008690357871</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>42.63674470658956</v>
+        <v>42.63674470670347</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>52.03159576970851</v>
+        <v>52.03159576982925</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>21.69031417147566</v>
+        <v>21.69031417146656</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>40.93445827938357</v>
+        <v>40.93445827940426</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>48.09460487841242</v>
+        <v>48.09460487842993</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>18.6172385632215</v>
+        <v>18.61723856318398</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>38.35362776989806</v>
+        <v>38.3536277699291</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>45.32900799235032</v>
+        <v>45.32900799238227</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>25.89467189556016</v>
+        <v>25.89467189555743</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>48.54181245502256</v>
+        <v>48.54181245508713</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>56.26048584070706</v>
+        <v>56.26048584076708</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>49.80038232969608</v>
+        <v>49.8003823296995</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>60.52695173432532</v>
+        <v>60.52695173433725</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>65.75449905650467</v>
+        <v>65.75449905647932</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>28.51382110663148</v>
+        <v>28.51382110661965</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>52.15458877442146</v>
+        <v>52.15458877448467</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>61.54959507605989</v>
+        <v>61.54959507610378</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>57.44223026250692</v>
+        <v>57.4422302625267</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>50.97624245709134</v>
+        <v>50.97624245712999</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>61.70253984463719</v>
+        <v>61.70253984466959</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>66.92926930794491</v>
+        <v>66.92926930796889</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>29.69433527552682</v>
+        <v>29.69433527546179</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>53.33274575462125</v>
+        <v>53.33274575467173</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>62.72738642928486</v>
+        <v>62.72738642930555</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>32.38199922451307</v>
+        <v>32.38199922452717</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>51.62745098826966</v>
+        <v>51.62745098827023</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>58.78743670157022</v>
+        <v>58.78743670158057</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>29.31171281715277</v>
+        <v>29.31171281720734</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>49.04962696463739</v>
+        <v>49.0496269646483</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>56.02486236914732</v>
+        <v>56.02486236918006</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>36.59005247757162</v>
+        <v>36.59005247755344</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>59.23854315661723</v>
+        <v>59.2385431566718</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>66.95708531652852</v>
+        <v>66.95708531653489</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>60.49811609311067</v>
+        <v>60.4981160930968</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>71.22474723598296</v>
+        <v>71.22474723603708</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>76.45224148796004</v>
+        <v>76.45224148798027</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>39.20999749752745</v>
+        <v>39.20999749756565</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>62.85251778830642</v>
+        <v>62.85251778833553</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>72.24731366952236</v>
+        <v>72.24731366960239</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>60.04121291227776</v>
+        <v>60.04121291232301</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>53.5752803007604</v>
+        <v>53.57528030077132</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>64.30154900686401</v>
+        <v>64.30154900686583</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>69.52847227324835</v>
+        <v>69.52847227333703</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>32.29265255863496</v>
+        <v>32.29265255868612</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>55.93207239880272</v>
+        <v>55.93207239880943</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>65.32688201344345</v>
+        <v>65.32688201356135</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>34.98006305010703</v>
+        <v>34.98006305007883</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>54.2261270903812</v>
+        <v>54.22612709034664</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>61.38633850276555</v>
+        <v>61.3863385027901</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>31.91170669766874</v>
+        <v>31.9117066977299</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>51.65026329864967</v>
+        <v>51.65026329872197</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>58.6258034845678</v>
+        <v>58.62580348461896</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>39.19001272398808</v>
+        <v>39.19001272398445</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>61.83911197033755</v>
+        <v>61.83911197038757</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>69.55787164100653</v>
+        <v>69.557871641042</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>63.09895762714795</v>
+        <v>63.0989576271152</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>73.82556007763836</v>
+        <v>73.82556007764745</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>79.05324810078085</v>
+        <v>79.05324810083542</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>41.810118388112</v>
+        <v>41.81011838806106</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>65.45364802024565</v>
+        <v>65.45364802024929</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>74.84861283084061</v>
+        <v>74.84861283086335</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>52.38342460451944</v>
+        <v>52.38342460453593</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>45.916080083842</v>
+        <v>45.91608008384814</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>56.64229321676104</v>
+        <v>56.64229321676365</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>61.86947237607584</v>
+        <v>61.86947237607414</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>24.6344988154697</v>
+        <v>24.63449881542514</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>48.27293914001192</v>
+        <v>48.27293913997713</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>57.6681907974419</v>
+        <v>57.66819079746009</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>27.32476809252038</v>
+        <v>27.32476809249673</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>46.56998804828815</v>
+        <v>46.56998804827678</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>53.73062363401679</v>
+        <v>53.73062363401747</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>24.25500960495609</v>
+        <v>24.2550096049379</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>43.99251326254777</v>
+        <v>43.99251326256505</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>50.96853421552002</v>
+        <v>50.96853421560005</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>31.53233981108523</v>
+        <v>31.53233981115321</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>54.18055889349299</v>
+        <v>54.18055889356859</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>61.89970345625844</v>
+        <v>61.89970345636292</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>55.4393775159845</v>
+        <v>55.43937751601542</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>66.16592438994545</v>
+        <v>66.1659243900182</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>71.39386831029211</v>
+        <v>71.39386831030666</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>34.15158464678328</v>
+        <v>34.15158464675941</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>57.79413482466877</v>
+        <v>57.79413482474846</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>67.18954170722319</v>
+        <v>67.18954170722603</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>-7.648147418415952</v>
+        <v>-7.648147418416407</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>11.58160092724726</v>
+        <v>11.58160092724055</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>18.7384131745063</v>
+        <v>18.73841317452347</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>-10.71941906631977</v>
+        <v>-10.71941906633614</v>
       </c>
     </row>
     <row r="364">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>15.97445731652218</v>
+        <v>15.97445731655129</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>-3.453971337905237</v>
+        <v>-3.453971337907511</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>19.17881343462901</v>
+        <v>19.17881343462026</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>26.89378433426206</v>
+        <v>26.89378433426604</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>20.42942165268145</v>
+        <v>20.42942165266917</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>31.14882680083398</v>
+        <v>31.14882680089264</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>36.37457736656794</v>
+        <v>36.3745773666025</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>-0.8427549984476954</v>
+        <v>-0.8427549984595188</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>22.77713797831101</v>
+        <v>22.7771379783001</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>32.17178497317472</v>
+        <v>32.17178497315471</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>-2.112578194288936</v>
+        <v>-2.11257819427609</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>17.12624394875971</v>
+        <v>17.1262439487704</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>24.28741508735735</v>
+        <v>24.28741508736486</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>-5.194864511702086</v>
+        <v>-5.19486451175154</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>14.53482505760602</v>
+        <v>14.53482505758885</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>21.51218081655137</v>
+        <v>21.51218081648486</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>2.077506730627682</v>
+        <v>2.077506730651557</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>24.71948366414339</v>
+        <v>24.71948366416738</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>3.03838354369217</v>
+        <v>3.03838354365238</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>22.26943943252585</v>
+        <v>22.26943943254029</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>29.42609078969875</v>
+        <v>29.426090789695</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>-0.03009942519926057</v>
+        <v>-0.03009942521381248</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>19.69354240763054</v>
+        <v>19.69354240764509</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>26.66515697467597</v>
+        <v>26.6651569746687</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>7.23625427916776</v>
+        <v>7.23625427912183</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>29.87038905028343</v>
+        <v>29.87038905022215</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>37.58522872446614</v>
+        <v>37.58522872446625</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>31.12200050736127</v>
+        <v>31.12200050738628</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>41.84146744107276</v>
+        <v>41.84146744105218</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>47.06716492550292</v>
+        <v>47.06716492546074</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>9.848266583844214</v>
+        <v>9.848266583825797</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>33.46991203751421</v>
+        <v>33.46991203751342</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>42.8643485744897</v>
+        <v>42.86434857449959</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>8.577892756549808</v>
+        <v>8.5778927565514</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>27.8180226472953</v>
+        <v>27.81802264733691</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>34.97903298249938</v>
+        <v>34.97903298256828</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>5.498395709537171</v>
+        <v>5.498395709478963</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>25.22961031861158</v>
+        <v>25.22961031861147</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>32.20682136308623</v>
+        <v>32.20682136304564</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>12.77167321580831</v>
+        <v>12.77167321574988</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>35.41500036036488</v>
+        <v>35.41500036029871</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>5.633721741978924</v>
+        <v>5.633721741997114</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>24.86538989784359</v>
+        <v>24.86538989789896</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>32.02226697650227</v>
+        <v>32.02226697656037</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>2.567168634730514</v>
+        <v>2.567168634749159</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>22.29145291071965</v>
+        <v>22.29145291074864</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>29.26337227339778</v>
+        <v>29.26337227343019</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>9.833488591250024</v>
+        <v>9.833488591307777</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>32.46823192096011</v>
+        <v>32.46823192095716</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>40.18328913446775</v>
+        <v>40.18328913450754</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>33.72011629948023</v>
+        <v>33.72011629946613</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>44.43955463324907</v>
+        <v>44.43955463327499</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>49.66544589230231</v>
+        <v>49.66544589232959</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>12.44566170847092</v>
+        <v>12.44566170850184</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>36.06831652818656</v>
+        <v>36.06831652819202</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>45.46292199444398</v>
+        <v>45.46292199449491</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>11.174493476241</v>
+        <v>11.17449347628966</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>30.41523568394908</v>
+        <v>30.41523568399877</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>37.57647177542962</v>
+        <v>37.57647177543269</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>8.096926540575659</v>
+        <v>8.096926540525637</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>27.82878364876868</v>
+        <v>27.82878364876687</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>34.80629953687438</v>
+        <v>34.80629953679981</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>15.37017034260456</v>
+        <v>15.37017034264435</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>38.01410609429733</v>
+        <v>38.01410609430449</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>-2.018441624234093</v>
+        <v>-2.018441624222952</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>17.21238248475769</v>
+        <v>17.21238248478122</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>24.36968374318079</v>
+        <v>24.36968374322434</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>-5.086396440079589</v>
+        <v>-5.0863964400423</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>14.63683492407976</v>
+        <v>14.63683492405884</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>21.60923503911867</v>
+        <v>21.6092350390932</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>2.178947937036391</v>
+        <v>2.178947937022066</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>24.81281114934101</v>
+        <v>24.81281114933669</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>32.52825326097597</v>
+        <v>32.52825326093868</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>26.06366846923132</v>
+        <v>26.06366846926043</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>36.78305122291491</v>
+        <v>36.78305122286728</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>42.00919837948519</v>
+        <v>42.00919837956489</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>4.790260189476875</v>
+        <v>4.790260189425716</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>28.41193563342521</v>
+        <v>28.41193563339463</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>37.8069832112515</v>
+        <v>37.80698321121864</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>3.519140026295908</v>
+        <v>3.519140026252025</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>22.75903805500733</v>
+        <v>22.75903805501301</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>29.92069827765412</v>
+        <v>29.92069827766776</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>0.4401708945718283</v>
+        <v>0.4401708945337433</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>20.17097495635327</v>
+        <v>20.17097495630313</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>27.14897155085774</v>
+        <v>27.14897155080488</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>7.712438858573741</v>
+        <v>7.712438858574423</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>30.35549435219506</v>
+        <v>30.35549435220302</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>32.43913622212271</v>
+        <v>32.43913622211623</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>25.97150836138375</v>
+        <v>25.97150836140171</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>36.69786126338321</v>
+        <v>36.69786126341936</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>41.92571565931875</v>
+        <v>41.92571565930488</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>4.693570575178718</v>
+        <v>4.69357057522874</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>28.32848298270032</v>
+        <v>28.32848298273112</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>37.72510656514627</v>
+        <v>37.72510656516616</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>7.387058594707277</v>
+        <v>7.38705859468454</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>26.62915015499622</v>
+        <v>26.62915015501441</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>33.79078149823128</v>
+        <v>33.79078149823491</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>4.313487566887069</v>
+        <v>4.313487566795438</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>24.04755731444019</v>
+        <v>24.04755731435629</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>31.02463718079938</v>
+        <v>31.02463718074481</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>11.58892366243393</v>
+        <v>11.58892366237982</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>34.23421722592312</v>
+        <v>34.23421722595985</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>41.95436464394644</v>
+        <v>41.95436464395747</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>35.49375581281087</v>
+        <v>35.49375581281132</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>46.22044250594937</v>
+        <v>46.22044250593164</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>51.44906171344102</v>
+        <v>51.4490617134683</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>14.20960614340041</v>
+        <v>14.20960614337131</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>37.8486285951365</v>
+        <v>37.84862859513922</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>47.24540754617264</v>
+        <v>47.24540754614626</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>43.13452178245635</v>
+        <v>43.13452178243748</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>36.66802817059764</v>
+        <v>36.66802817057764</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>47.39444283069398</v>
+        <v>47.39444283065203</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>52.62224419944656</v>
+        <v>52.62224419943394</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>15.38853295452262</v>
+        <v>15.38853295450239</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>39.02519812360382</v>
+        <v>39.02519812356847</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>48.42161133621111</v>
+        <v>48.42161133622077</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>18.0794575743594</v>
+        <v>18.07945757437941</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>37.32285686117169</v>
+        <v>37.32285686118261</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>44.48432733819894</v>
+        <v>44.48432733816529</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>15.0086759087599</v>
+        <v>15.00867590875126</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>34.74427067311039</v>
+        <v>34.74427067312107</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>41.72120574910472</v>
+        <v>41.72120574909017</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>22.28501839137611</v>
+        <v>22.28501839141703</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>44.9316621501512</v>
+        <v>44.9316621502085</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>52.65167836297272</v>
+        <v>52.65167836297091</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>46.19220384094664</v>
+        <v>46.19220384086865</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>56.91895228608977</v>
+        <v>56.91895228605726</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>62.14751844052675</v>
+        <v>62.14751844047559</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>24.90649673192664</v>
+        <v>24.90649673190573</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>48.54727189195572</v>
+        <v>48.54727189187739</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>57.9438404412006</v>
+        <v>57.94384044116683</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>45.73384508931205</v>
+        <v>45.73384508934195</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>39.26740662074261</v>
+        <v>39.26740662080832</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>49.99379260485129</v>
+        <v>49.99379260487482</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>55.22178780234325</v>
+        <v>55.2217878023943</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>17.9871908103551</v>
+        <v>17.98719081038329</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>41.62486540249771</v>
+        <v>41.62486540256615</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>51.02144757957209</v>
+        <v>51.02144757968396</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>20.67786199636593</v>
+        <v>20.67786199632796</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>39.92187361165194</v>
+        <v>39.92187361167172</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>47.08356980949649</v>
+        <v>47.08356980955811</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>17.6090104719074</v>
+        <v>17.6090104718974</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>37.34524774015896</v>
+        <v>37.34524774013372</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>44.32248762638771</v>
+        <v>44.32248762636315</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>24.88531934374058</v>
+        <v>24.88531934375218</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>47.53257172457806</v>
+        <v>47.53257172463308</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>55.25280546923822</v>
+        <v>55.25280546926368</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>48.79338610679387</v>
+        <v>48.79338610680615</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>59.52010586492626</v>
+        <v>59.52010586490466</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>64.74886581610727</v>
+        <v>64.74886581610386</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>27.50695831932698</v>
+        <v>27.50695831936313</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>51.14874288335447</v>
+        <v>51.14874288331456</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>60.54548038636964</v>
+        <v>60.54548038639158</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>38.07561819381286</v>
+        <v>38.07561819382264</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>31.60776774040054</v>
+        <v>31.60776774035939</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>42.33409813802079</v>
+        <v>42.33409813800203</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>47.56234923567664</v>
+        <v>47.56234923564401</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>10.32859845960005</v>
+        <v>10.32859845960619</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>33.96529348500204</v>
+        <v>33.96529348495452</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>43.36231771316958</v>
+        <v>43.3623177131639</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>13.02212855891802</v>
+        <v>13.02212855893757</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>32.26529604475721</v>
+        <v>32.26529604475892</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>39.42741641914112</v>
+        <v>39.4274164191626</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>9.951874794947834</v>
+        <v>9.951874794948743</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>29.68705906635288</v>
+        <v>29.68705906633378</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>36.66477972085264</v>
+        <v>36.66477972081626</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>17.22720779728801</v>
+        <v>17.22720779723867</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>39.87357996635698</v>
+        <v>39.87357996630593</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>47.59419860470795</v>
+        <v>47.59419860471693</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>41.13336723976889</v>
+        <v>41.13336723973615</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>51.86003140804988</v>
+        <v>51.86003140797531</v>
       </c>
     </row>
     <row r="536">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>19.84798587826075</v>
+        <v>19.8479858782512</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>43.48879093656175</v>
+        <v>43.48879093655538</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>52.88597051986736</v>
+        <v>52.8859705199092</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>-7.831467778945772</v>
+        <v>-7.831467778916782</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>11.39707486659407</v>
+        <v>11.3970748665411</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>18.55327535056021</v>
+        <v>18.55327535058544</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-10.90293999212846</v>
+        <v>-10.90293999207162</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>8.817953390161769</v>
+        <v>8.817953390158017</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>15.78907813479206</v>
+        <v>15.78907813483901</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-3.637798778819239</v>
+        <v>-3.637798778782972</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>18.99353086187867</v>
+        <v>18.99353086187833</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>26.70785611642683</v>
+        <v>26.70785611646946</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>20.24406844020977</v>
+        <v>20.24406844020067</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>30.96267293540806</v>
+        <v>30.96267293542625</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>36.18794890411338</v>
+        <v>36.18794890418886</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>-1.026901915717495</v>
+        <v>-1.026901915741483</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>22.59143865457137</v>
+        <v>22.59143865455693</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>31.98526356641938</v>
+        <v>31.98526356642655</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>-2.29354148832757</v>
+        <v>-2.293541488307561</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>16.94407438853515</v>
+        <v>16.94407438857301</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>24.10463343694202</v>
+        <v>24.10463343693576</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>-5.376027463795673</v>
+        <v>-5.376027463773049</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>14.35243804412384</v>
+        <v>14.35243804409462</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>21.32915876245128</v>
+        <v>21.32915876248936</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>1.896036986077469</v>
+        <v>1.896036986115668</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>24.53655821270664</v>
+        <v>24.53655821272017</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>2.85424656644981</v>
+        <v>2.854246566439123</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>22.08409666145079</v>
+        <v>22.08409666144795</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>29.24013626791547</v>
+        <v>29.24013626790967</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-0.214437163184094</v>
+        <v>-0.2144371631918247</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>19.50798094001508</v>
+        <v>19.50798094004976</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>26.478960884317</v>
+        <v>26.47896088433325</v>
       </c>
     </row>
     <row r="569">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>29.68428949838634</v>
+        <v>29.68428949837907</v>
       </c>
     </row>
     <row r="571">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>30.93583025001866</v>
+        <v>30.93583024999683</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>41.65449652431327</v>
+        <v>41.65449652431963</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>46.87971941560378</v>
+        <v>46.87971941560719</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>9.663302731224611</v>
+        <v>9.663302731195508</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>33.28339565560604</v>
+        <v>33.28339565565322</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>42.67701012438105</v>
+        <v>42.67701012441731</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>8.396112605471934</v>
+        <v>8.396112605516045</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>27.63503613668119</v>
+        <v>27.63503613671006</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>34.79543439422915</v>
+        <v>34.79543439427986</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>5.316415704950067</v>
+        <v>5.316415704953478</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>25.04640614506346</v>
+        <v>25.04640614509234</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>32.02298216032367</v>
+        <v>32.02298216031958</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>12.58938634890527</v>
+        <v>12.58938634892346</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>35.2312576894108</v>
+        <v>35.2312576893925</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>5.449326151781669</v>
+        <v>5.449326151795312</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>24.67978846624127</v>
+        <v>24.67978846630289</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>31.83605378115343</v>
+        <v>31.83605378115229</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>2.38257215121056</v>
+        <v>2.382572151223066</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>22.10563264860154</v>
+        <v>22.10563264861984</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>29.07691736979101</v>
+        <v>29.07691736978658</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>9.648585519320058</v>
+        <v>9.648585519385541</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>32.2818735720712</v>
+        <v>32.28187357214669</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>39.9962851388755</v>
+        <v>39.99628513889642</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>33.53368723732709</v>
+        <v>33.53368723734165</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>44.25232491234798</v>
+        <v>44.25232491240619</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>49.4777415639475</v>
+        <v>49.4777415639841</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>12.26043910257957</v>
+        <v>12.26043910264483</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>35.88154132116032</v>
+        <v>35.88154132121489</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>45.27532470788291</v>
+        <v>45.2753247078704</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>10.99245461711306</v>
+        <v>10.99245461712216</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>30.23199041752859</v>
+        <v>30.23199041757031</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>37.39261441836815</v>
+        <v>37.39261441841146</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>7.914687695513557</v>
+        <v>7.914687695607689</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>27.64532058573324</v>
+        <v>27.64532058574142</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>34.62220142588459</v>
+        <v>34.62220142589982</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>15.18762463151533</v>
+        <v>15.18762463155171</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>37.83010453147612</v>
+        <v>37.8301045315233</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>-2.202288356739324</v>
+        <v>-2.202288356731252</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>17.02732996989793</v>
+        <v>17.02732996991407</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>24.18401943481516</v>
+        <v>24.18401943483858</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>-5.270443964561387</v>
+        <v>-5.270443964583215</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>14.45156369358282</v>
+        <v>14.45156369357554</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>21.42332913262343</v>
+        <v>21.42332913264503</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>1.994593894155322</v>
+        <v>1.994593894191247</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>24.62700189088847</v>
+        <v>24.62700189087665</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>32.34179832910414</v>
+        <v>32.34179832905685</v>
       </c>
     </row>
     <row r="618">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>36.59637067400448</v>
+        <v>36.59637067397538</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>41.82204320385976</v>
+        <v>41.82204320390341</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>4.605586675536223</v>
+        <v>4.605586675488702</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>28.22570958648297</v>
+        <v>28.22570958646489</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>37.61993505259037</v>
+        <v>37.61993505261413</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>3.337650216076135</v>
+        <v>3.337650216044075</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>22.57634189652996</v>
+        <v>22.57634189650381</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>29.73738999887784</v>
+        <v>29.73738999887738</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>0.2584811990621247</v>
+        <v>0.258481199043139</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>19.98806111564583</v>
+        <v>19.98806111561684</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>26.96542262783911</v>
+        <v>26.96542262785673</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>7.530442367082777</v>
+        <v>7.530442367114155</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>30.17204207062324</v>
+        <v>30.17204207059709</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>32.25556477326646</v>
+        <v>32.25556477329454</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>25.7885120669096</v>
+        <v>25.78851206695621</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>36.51406381505959</v>
+        <v>36.51406381505175</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>41.74144344015864</v>
+        <v>41.74144344022015</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>4.511780882980055</v>
+        <v>4.511780882991424</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>28.14513989016192</v>
+        <v>28.14513989016806</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>37.54094128850731</v>
+        <v>37.54094128851526</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>7.205169350684663</v>
+        <v>7.205169350682617</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>26.44605440261981</v>
+        <v>26.44605440259037</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>33.60707362145755</v>
+        <v>33.6070736214538</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>4.131397995632177</v>
+        <v>4.131397995671286</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>23.86424336784822</v>
+        <v>23.86424336783879</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>30.84068820835811</v>
+        <v>30.84068820828637</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>11.40652707208032</v>
+        <v>11.40652707210965</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>34.05036468074358</v>
+        <v>34.05036468075074</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>41.76986606257996</v>
+        <v>41.76986606253073</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>35.30983186579355</v>
+        <v>35.30983186579082</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>46.03571736334769</v>
+        <v>46.03571736338044</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>51.26386177090857</v>
+        <v>51.26386177091494</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>14.02688928316028</v>
+        <v>14.02688928315755</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>37.66435805390362</v>
+        <v>37.66435805390817</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>47.06031478646916</v>
+        <v>47.06031478648325</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>42.95013312418613</v>
+        <v>42.9501331241751</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>36.48421459049272</v>
+        <v>36.48421459047498</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>47.20982809048147</v>
+        <v>47.20982809045976</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>52.4371546924314</v>
+        <v>52.43715469237581</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>15.2059260861029</v>
+        <v>15.20592608607107</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>38.84103773260998</v>
+        <v>38.84103773264534</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>48.23662877594192</v>
+        <v>48.23662877595817</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>17.8967513339558</v>
+        <v>17.89675133392624</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>37.13894401904432</v>
+        <v>37.13894401900374</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>44.299802384012</v>
+        <v>44.29980238399347</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>14.82576914559562</v>
+        <v>14.82576914565724</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>34.56013942686756</v>
+        <v>34.56013942683368</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>41.53643948826622</v>
+        <v>41.5364394882362</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>22.10180453938941</v>
+        <v>22.10180453944944</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>44.74699224628117</v>
+        <v>44.74699224627015</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>52.46636243320646</v>
+        <v>52.46636243319544</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>46.00746246891621</v>
+        <v>46.00746246893076</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>56.73340971225517</v>
+        <v>56.733409712277</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>61.96150107067903</v>
+        <v>61.9615010707054</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>24.72296255632617</v>
+        <v>24.7229625562807</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>48.36218391277263</v>
+        <v>48.36218391277536</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>57.75793025862246</v>
+        <v>57.75793025861064</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>45.54919752717664</v>
+        <v>45.54919752715288</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>39.08333414144867</v>
+        <v>39.08333414143866</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>49.80891896609231</v>
+        <v>49.8089189661022</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>55.03643938260374</v>
+        <v>55.03643938258816</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>17.8043250938288</v>
+        <v>17.8043250938313</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>41.4404460914108</v>
+        <v>41.44044609143706</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>50.83620608788048</v>
+        <v>50.83620608787763</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>20.49489692978526</v>
+        <v>20.49489692975502</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>39.73770189552787</v>
+        <v>39.73770189556959</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>46.89878596854354</v>
+        <v>46.89878596860505</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>17.42584475021457</v>
+        <v>17.42584475025118</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>37.16085748653737</v>
+        <v>37.16085748660661</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>44.13746233940825</v>
+        <v>44.13746233941928</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>24.70184652952438</v>
+        <v>24.70184652958623</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>47.34764281079985</v>
+        <v>47.34764281082168</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>55.0672305173313</v>
+        <v>55.06723051738224</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>48.60838571712251</v>
+        <v>48.6083857171116</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>59.33430427418083</v>
+        <v>59.33430427421005</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>64.56258941516901</v>
+        <v>64.56258941515821</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>27.32316517765597</v>
+        <v>27.32316517762869</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>50.96339586592425</v>
+        <v>50.96339586597518</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>60.35931115430461</v>
+        <v>60.35931115431917</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>37.89151988613904</v>
+        <v>37.8915198861561</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>31.42424461843306</v>
+        <v>31.42424461849445</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>42.14977386196612</v>
+        <v>42.14977386199499</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>47.37755015932422</v>
+        <v>47.37755015929512</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>10.14628202560565</v>
+        <v>10.14628202558701</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>33.78142352454271</v>
+        <v>33.78142352454294</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>43.17762553997083</v>
+        <v>43.17762553999129</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>12.83971257971124</v>
+        <v>12.83971257973625</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>32.0816734750105</v>
+        <v>32.08167347502107</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>39.24318169487962</v>
+        <v>39.24318169485381</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>9.769258261274253</v>
+        <v>9.769258261211498</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>29.50321807360687</v>
+        <v>29.50321807359573</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>36.48030366034053</v>
+        <v>36.48030366033667</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>17.04428424099459</v>
+        <v>17.04428424101983</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>39.68920037220077</v>
+        <v>39.68920037221293</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>47.40917294584168</v>
+        <v>47.40917294587522</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>40.94891624607775</v>
+        <v>40.94891624607047</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>51.67477921854167</v>
+        <v>51.67477921861443</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>56.90332024469254</v>
+        <v>56.90332024471528</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>19.66474205741842</v>
+        <v>19.66474205743751</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>43.30399330812728</v>
+        <v>43.30399330812819</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>52.70035064464654</v>
+        <v>52.70035064465791</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>-3.181369438698049</v>
+        <v>-3.181369438709986</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>16.04992888167411</v>
+        <v>16.04992888172607</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>23.20618890414929</v>
+        <v>23.20618890417169</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>-6.252878662984891</v>
+        <v>-6.252878662870295</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>13.4708508469926</v>
+        <v>13.47085084702</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>20.44195212210847</v>
+        <v>20.44195212211586</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>1.013785838503544</v>
+        <v>1.013785838488992</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>23.64811658492923</v>
+        <v>23.64811658492741</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>31.36257047303676</v>
+        <v>31.36257047304949</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>24.89834283606186</v>
+        <v>24.89834283612416</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>35.61783663683256</v>
+        <v>35.61783663687383</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>40.84315217762302</v>
+        <v>40.84315217762995</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>3.624250740397919</v>
+        <v>3.624250740385413</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>27.24575758915913</v>
+        <v>27.24575758917732</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>36.63965292046115</v>
+        <v>36.63965292048321</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>2.352814863372977</v>
+        <v>2.352814863278162</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>21.59318680768323</v>
+        <v>21.5931868076115</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>28.75380547605918</v>
+        <v>28.7538054759647</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>-0.7297091459382372</v>
+        <v>-0.7297091459208431</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>19.00159280878567</v>
+        <v>19.00159280878146</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>25.97829021276895</v>
+        <v>25.97829021273041</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>6.543879038458535</v>
+        <v>6.543879038442164</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>29.18740176851671</v>
+        <v>29.1874017684875</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>7.505216879529861</v>
+        <v>7.505216879498256</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>26.73782275725049</v>
+        <v>26.73782275721866</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>33.89392187055243</v>
+        <v>33.89392187052901</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>4.436496365437996</v>
+        <v>4.436496365474149</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>24.16175072594073</v>
+        <v>24.16175072589355</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>31.13270716585934</v>
+        <v>31.13270716584513</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>11.70406684073513</v>
+        <v>11.70406684074673</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>34.33974759784272</v>
+        <v>34.33974759783693</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>42.0540702419103</v>
+        <v>42.05407024189314</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>35.59097709041456</v>
+        <v>35.59097709039546</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>46.31053267462429</v>
+        <v>46.3105326746244</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>51.53579512378318</v>
+        <v>51.53579512376511</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>14.31532770282414</v>
+        <v>14.31532770277003</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>37.93858705579866</v>
+        <v>37.93858705576819</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>47.33227190784184</v>
+        <v>47.33227190784638</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>13.04334117454645</v>
+        <v>13.04334117453985</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>32.28502088074621</v>
+        <v>32.28502088070267</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>39.44547872669083</v>
+        <v>39.44547872662637</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>9.963606467412809</v>
+        <v>9.96360646743782</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>29.69643348340825</v>
+        <v>29.6964334833954</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>36.67298614929761</v>
+        <v>36.67298614922814</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>17.2381009128715</v>
+        <v>17.23810091285717</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>39.88297386582409</v>
+        <v>39.88297386578783</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>10.10044346053227</v>
+        <v>10.10044346054546</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>29.33366159246865</v>
+        <v>29.33366159247729</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>36.48998642723294</v>
+        <v>36.48998642719656</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>7.033652835072907</v>
+        <v>7.033652835092006</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>26.75954962802431</v>
+        <v>26.75954962802533</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>33.73081086361564</v>
+        <v>33.73081086366464</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>14.30118954642152</v>
+        <v>14.30118954640356</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>36.9374788467998</v>
+        <v>36.93747884684004</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>44.65201903075846</v>
+        <v>44.65201903080484</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>38.18898129576636</v>
+        <v>38.18898129586027</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>48.90850827547039</v>
+        <v>48.90850827555395</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>54.13396449319945</v>
+        <v>54.13396449326891</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>16.91261124050678</v>
+        <v>16.91261124048564</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>40.53687995560112</v>
+        <v>40.53687995562715</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>49.93073373254882</v>
+        <v>49.93073373259282</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>15.63983028389888</v>
+        <v>15.63983028394413</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>34.88212229392756</v>
+        <v>34.88212229386651</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>42.0428058962896</v>
+        <v>42.0428058962406</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>12.56202571454472</v>
+        <v>12.5620257145088</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>32.29549521907146</v>
+        <v>32.29549521904179</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>39.27235272854663</v>
+        <v>39.27235272855675</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>19.83648643944029</v>
+        <v>19.836486439408</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>42.48196798490793</v>
+        <v>42.48196798490179</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>2.448142655304117</v>
+        <v>2.448142655311393</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>21.68051672114931</v>
+        <v>21.68051672112737</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>28.83726575641018</v>
+        <v>28.83726575636278</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>-0.6200496904044357</v>
+        <v>-0.6200496903959092</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>19.10479416574768</v>
+        <v>19.10479416572768</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>26.07653617845759</v>
+        <v>26.07653617845214</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>6.646511433434434</v>
+        <v>6.646511433417153</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>29.28192059858603</v>
+        <v>29.2819205986306</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>36.99684570070114</v>
+        <v>36.99684570069568</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>30.53239601394493</v>
+        <v>30.53239601395675</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>41.25186741340341</v>
+        <v>41.25186741340466</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>46.47757953409624</v>
+        <v>46.47757953410045</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>9.257072283196557</v>
+        <v>9.257072283178594</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>32.88036159652248</v>
+        <v>32.88036159652987</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>42.27465750364892</v>
+        <v>42.27465750364539</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>7.984339384216618</v>
+        <v>7.984339384265731</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>27.22578719604716</v>
+        <v>27.22578719602874</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>34.38689495015982</v>
+        <v>34.38689495012435</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>4.905132607044187</v>
+        <v>4.905132607047598</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>24.63754904018439</v>
+        <v>24.63754904018428</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>31.61488728103374</v>
+        <v>31.61488728107</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>12.17861748630916</v>
+        <v>12.17861748629506</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>34.82321875573238</v>
+        <v>34.8232187557434</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>36.90653706780896</v>
+        <v>36.9065370678525</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>30.4390446958494</v>
+        <v>30.43904469585667</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>41.16548608968291</v>
+        <v>41.16548608963664</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>46.39290527329471</v>
+        <v>46.39290527331665</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>9.15919167353335</v>
+        <v>9.159191673603154</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>32.79571767151723</v>
+        <v>32.79571767154031</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>42.19158963926751</v>
+        <v>42.19158963930946</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>11.85188382987739</v>
+        <v>11.85188382988967</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>31.09552519540561</v>
+        <v>31.0955251953931</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>38.25660409980086</v>
+        <v>38.25660409980177</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>8.778075118167898</v>
+        <v>8.778075118225196</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>28.51375727089241</v>
+        <v>28.5137572708998</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>35.49017876730696</v>
+        <v>35.49017876731708</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>16.05472815930697</v>
+        <v>16.05472815928196</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>38.70156750603898</v>
+        <v>38.70156750600646</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>46.42119770267451</v>
+        <v>46.42119770266792</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>39.96072429865448</v>
+        <v>39.96072429859309</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>50.68749948734095</v>
+        <v>50.68749948731628</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>55.91568359817771</v>
+        <v>55.91568359804777</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>18.67465946973406</v>
+        <v>18.67465946978226</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>42.31529563421854</v>
+        <v>42.31529563419353</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>51.71132288611651</v>
+        <v>51.71132288611333</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>47.60197801051837</v>
+        <v>47.60197801046733</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>41.13561990817178</v>
+        <v>41.13561990813722</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>51.86212305812993</v>
+        <v>51.86212305813732</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>57.08948920447225</v>
+        <v>57.08948920446509</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>19.85420943705348</v>
+        <v>19.85420943692342</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>43.49248822367114</v>
+        <v>43.49248822363931</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>52.88814980033218</v>
+        <v>52.88814980033718</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>22.54433812071674</v>
+        <v>22.54433812067308</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>41.78928722689231</v>
+        <v>41.78928722689219</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>48.95020524596035</v>
+        <v>48.95020524591113</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>19.47331880284791</v>
+        <v>19.47331880284677</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>39.21052599343833</v>
+        <v>39.21052599343754</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>46.18680267603035</v>
+        <v>46.18680267603001</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>26.75087822812933</v>
+        <v>26.75087822815139</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>49.39906778202002</v>
+        <v>49.3990677820448</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>57.11856675450853</v>
+        <v>57.11856675452695</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>50.65922768061549</v>
+        <v>50.65922768062709</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>61.38606461949374</v>
+        <v>61.38606461954945</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>66.61419566713565</v>
+        <v>66.61419566714679</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>29.37160539302821</v>
+        <v>29.37160539296864</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>53.01399429301845</v>
+        <v>53.01399429300765</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>62.40981112182229</v>
+        <v>62.40981112184856</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>50.20118970286243</v>
+        <v>50.20118970286789</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>43.7348867788999</v>
+        <v>43.73488677883532</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>54.46136124799924</v>
+        <v>54.46136124796036</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>59.68892121708215</v>
+        <v>59.68892121710238</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>22.45275571285087</v>
+        <v>22.45275571284791</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>46.09204391866641</v>
+        <v>46.09204391871803</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>55.48787445532029</v>
+        <v>55.48787445534234</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>25.14263093541198</v>
+        <v>25.14263093542767</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>44.38819235685654</v>
+        <v>44.38819235678992</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>51.54933609700269</v>
+        <v>51.54933609690651</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>22.07354178498512</v>
+        <v>22.07354178502082</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>41.81139146941602</v>
+        <v>41.81139146943568</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>48.78797296202143</v>
+        <v>48.78797296200836</v>
       </c>
     </row>
     <row r="869">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>51.99986574504457</v>
+        <v>51.99986574504104</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>59.71958224983533</v>
+        <v>59.7195822497802</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>53.2602983699226</v>
+        <v>53.26029836987099</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>63.98710661716033</v>
+        <v>63.98710661706972</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>69.21543145561932</v>
+        <v>69.21543145554509</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>31.97195540406896</v>
+        <v>31.97195540404963</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>55.6153537037715</v>
+        <v>55.61535370368225</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>65.01133948212671</v>
+        <v>65.01133948207158</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>42.54282534052508</v>
+        <v>42.5428253405668</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>36.07511043613639</v>
+        <v>36.07511043610069</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>46.80152931875413</v>
+        <v>46.80152931883973</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>52.02934519358136</v>
+        <v>52.02934519353963</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>14.79402591302713</v>
+        <v>14.79402591293982</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>38.43233452602559</v>
+        <v>38.43233452602946</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>47.82860713219694</v>
+        <v>47.82860713217284</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>17.48676011078468</v>
+        <v>17.4867601108413</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>36.73147738375489</v>
+        <v>36.73147738371203</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>43.89304532101747</v>
+        <v>43.89304532098462</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>14.41626870929716</v>
+        <v>14.41626870933263</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>34.15306537190683</v>
+        <v>34.15306537189694</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>41.13012765792761</v>
+        <v>41.1301276578968</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>21.69281863067889</v>
+        <v>21.69281863068731</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>44.34073656201898</v>
+        <v>44.34073656199033</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>52.06083798077001</v>
+        <v>52.06083798076524</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>45.60014210302919</v>
+        <v>45.60014210300759</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>56.32689476037687</v>
+        <v>56.32689476034594</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>61.55547550877001</v>
+        <v>61.5554755087118</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>24.31284557611006</v>
+        <v>24.31284557605685</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>47.95526434415778</v>
+        <v>47.95526434411878</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>57.35169222140397</v>
+        <v>57.35169222131973</v>
       </c>
     </row>
   </sheetData>
